--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-767969.3308767582</v>
+        <v>-768767.575910415</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2483774.929486434</v>
+        <v>2483774.929486432</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12980675.51451235</v>
+        <v>12980675.51451236</v>
       </c>
     </row>
     <row r="11">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>135.7293992974318</v>
+        <v>7.865925798787461</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>7.865925798787496</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>62.7465679129816</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T9" t="n">
+      <c r="Y9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U9" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="V9" t="n">
-        <v>60.36402868517423</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,73 +1288,73 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="W10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>38.15196793284785</v>
-      </c>
-      <c r="R10" t="n">
-        <v>21.94182076836087</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>306.9184284283104</v>
+        <v>306.9184284283103</v>
       </c>
       <c r="C11" t="n">
-        <v>294.9297453859922</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>285.9110494305201</v>
       </c>
       <c r="E11" t="n">
-        <v>307.6531870004257</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>328.2706518781365</v>
+        <v>328.2706518781364</v>
       </c>
       <c r="H11" t="n">
-        <v>241.3145567775166</v>
+        <v>241.3145567775165</v>
       </c>
       <c r="I11" t="n">
-        <v>1.306673116907831</v>
+        <v>69.10541545958799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.06038950496081</v>
+        <v>91.06038950496074</v>
       </c>
       <c r="T11" t="n">
-        <v>136.7961284678624</v>
+        <v>136.7961284678623</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W11" t="n">
-        <v>275.7249051464465</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X11" t="n">
-        <v>295.0251633791931</v>
+        <v>124.3607006239179</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.4217611753919</v>
+        <v>306.4217611753917</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H12" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I12" t="n">
-        <v>58.71574796301674</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>42.98778846128309</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S12" t="n">
         <v>146.4254034700827</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.53513930300754</v>
+        <v>42.60369066403574</v>
       </c>
       <c r="C13" t="n">
-        <v>84.73513414840802</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>68.35649854598641</v>
+        <v>68.35649854598628</v>
       </c>
       <c r="E13" t="n">
-        <v>67.30424840176586</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>67.77117272995217</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.82714630647808</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>72.64954213184647</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99855633999342</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.00703014733529</v>
+        <v>55.0070301473352</v>
       </c>
       <c r="S13" t="n">
-        <v>124.5761368156061</v>
+        <v>124.576136815606</v>
       </c>
       <c r="T13" t="n">
-        <v>146.7279179755286</v>
+        <v>146.7279179755284</v>
       </c>
       <c r="U13" t="n">
-        <v>52.64477534158217</v>
+        <v>201.1217307406358</v>
       </c>
       <c r="V13" t="n">
-        <v>174.9432757026331</v>
+        <v>174.943275702633</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X13" t="n">
-        <v>145.7552637690495</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.9184284283106</v>
+        <v>306.9184284283103</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>294.9297453859921</v>
       </c>
       <c r="D14" t="n">
-        <v>285.9110494305203</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>307.6531870004258</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2706518781366</v>
+        <v>148.5874931673884</v>
       </c>
       <c r="H14" t="n">
-        <v>241.3145567775167</v>
+        <v>241.3145567775165</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>69.10541545958803</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.06038950496088</v>
+        <v>91.06038950496075</v>
       </c>
       <c r="T14" t="n">
-        <v>136.7961284678625</v>
+        <v>136.7961284678623</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V14" t="n">
-        <v>10.3253690723794</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W14" t="n">
-        <v>275.7249051464465</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X14" t="n">
-        <v>295.0251633791931</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.4217611753919</v>
+        <v>306.4217611753917</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H15" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I15" t="n">
-        <v>58.71574796301674</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.98778846128309</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S15" t="n">
         <v>146.4254034700827</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.48756454965083</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.73513414840809</v>
+        <v>84.73513414840791</v>
       </c>
       <c r="D16" t="n">
-        <v>68.35649854598648</v>
+        <v>68.3564985459863</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.77117272995224</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>83.82714630647817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.64954213184654</v>
+        <v>12.87558666296241</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99855633999348</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.00703014733537</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.5761368156062</v>
+        <v>124.5761368156061</v>
       </c>
       <c r="T16" t="n">
-        <v>146.7279179755286</v>
+        <v>146.7279179755284</v>
       </c>
       <c r="U16" t="n">
-        <v>201.121730740636</v>
+        <v>201.1217307406358</v>
       </c>
       <c r="V16" t="n">
-        <v>174.9432757026332</v>
+        <v>174.943275702633</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.6301315251173</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.2779296589885</v>
+        <v>233.2779296589883</v>
       </c>
       <c r="C17" t="n">
-        <v>221.2892466166702</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D17" t="n">
-        <v>212.2705506611982</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E17" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F17" t="n">
-        <v>253.1845043190809</v>
+        <v>253.1845043190821</v>
       </c>
       <c r="G17" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H17" t="n">
-        <v>167.6740580081946</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.4198907356388</v>
+        <v>17.41989073563866</v>
       </c>
       <c r="T17" t="n">
-        <v>63.15562969854039</v>
+        <v>63.1556296985402</v>
       </c>
       <c r="U17" t="n">
-        <v>95.4722989306803</v>
+        <v>95.4722989306801</v>
       </c>
       <c r="V17" t="n">
-        <v>176.7843068991676</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W17" t="n">
-        <v>202.0844063771245</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X17" t="n">
-        <v>221.3846646098719</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y17" t="n">
-        <v>232.7812624060699</v>
+        <v>232.7812624060697</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H18" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I18" t="n">
-        <v>58.71574796301675</v>
+        <v>58.71574796301679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.9877884612831</v>
+        <v>42.98778846128317</v>
       </c>
       <c r="S18" t="n">
         <v>146.4254034700827</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.89464053368553</v>
+        <v>24.89464053368533</v>
       </c>
       <c r="C19" t="n">
-        <v>11.09463537908601</v>
+        <v>11.09463537908582</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.18664753715608</v>
+        <v>10.18664753715588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.53472542087049</v>
+        <v>96.5347254208715</v>
       </c>
       <c r="T19" t="n">
-        <v>73.08741920620655</v>
+        <v>73.08741920620635</v>
       </c>
       <c r="U19" t="n">
-        <v>127.481231971314</v>
+        <v>127.4812319713138</v>
       </c>
       <c r="V19" t="n">
-        <v>101.3027769333111</v>
+        <v>101.3027769333109</v>
       </c>
       <c r="W19" t="n">
-        <v>126.4696630039244</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X19" t="n">
-        <v>72.1147649997275</v>
+        <v>72.1147649997273</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.98963275579518</v>
+        <v>62.98963275579499</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.2779296589885</v>
+        <v>233.2779296589883</v>
       </c>
       <c r="C20" t="n">
-        <v>221.2892466166702</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2705506611982</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E20" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F20" t="n">
-        <v>253.1845043190809</v>
+        <v>253.1845043190807</v>
       </c>
       <c r="G20" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H20" t="n">
-        <v>167.6740580081946</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.4198907356388</v>
+        <v>17.41989073563866</v>
       </c>
       <c r="T20" t="n">
-        <v>63.15562969854039</v>
+        <v>63.1556296985402</v>
       </c>
       <c r="U20" t="n">
-        <v>95.4722989306803</v>
+        <v>95.4722989306801</v>
       </c>
       <c r="V20" t="n">
-        <v>176.7843068991676</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W20" t="n">
-        <v>202.0844063771245</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X20" t="n">
-        <v>221.3846646098711</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.7812624060699</v>
+        <v>232.7812624060697</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H21" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I21" t="n">
-        <v>58.71574796301675</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.9877884612831</v>
+        <v>42.98778846128316</v>
       </c>
       <c r="S21" t="n">
         <v>146.4254034700827</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.89464053368553</v>
+        <v>24.89464053368533</v>
       </c>
       <c r="C22" t="n">
-        <v>11.09463537908601</v>
+        <v>11.09463537908582</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.18664753715608</v>
+        <v>10.18664753715588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.53472542087049</v>
+        <v>96.5347254208715</v>
       </c>
       <c r="T22" t="n">
-        <v>73.08741920620655</v>
+        <v>73.08741920620635</v>
       </c>
       <c r="U22" t="n">
-        <v>127.481231971314</v>
+        <v>127.4812319713138</v>
       </c>
       <c r="V22" t="n">
-        <v>101.3027769333111</v>
+        <v>101.3027769333109</v>
       </c>
       <c r="W22" t="n">
-        <v>126.4696630039244</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X22" t="n">
-        <v>72.1147649997275</v>
+        <v>72.1147649997273</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.98963275579518</v>
+        <v>62.98963275579499</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.2779296589884</v>
+        <v>233.2779296589883</v>
       </c>
       <c r="C23" t="n">
-        <v>221.2892466166702</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D23" t="n">
-        <v>212.2705506611981</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E23" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F23" t="n">
-        <v>253.1845043190808</v>
+        <v>253.1845043190807</v>
       </c>
       <c r="G23" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H23" t="n">
-        <v>167.6740580081946</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.41989073563882</v>
+        <v>17.41989073563866</v>
       </c>
       <c r="T23" t="n">
-        <v>63.15562969854037</v>
+        <v>63.1556296985402</v>
       </c>
       <c r="U23" t="n">
-        <v>95.47229893068027</v>
+        <v>95.4722989306801</v>
       </c>
       <c r="V23" t="n">
-        <v>176.7843068991675</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W23" t="n">
-        <v>202.0844063771245</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X23" t="n">
-        <v>221.3846646098711</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.7812624060698</v>
+        <v>232.7812624060697</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.8946405336855</v>
+        <v>24.89464053368533</v>
       </c>
       <c r="C25" t="n">
-        <v>11.09463537908599</v>
+        <v>11.09463537908582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.18664753715605</v>
+        <v>10.18664753715588</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.93563804628414</v>
+        <v>50.93563804628397</v>
       </c>
       <c r="T25" t="n">
-        <v>118.6865065807924</v>
+        <v>118.6865065807938</v>
       </c>
       <c r="U25" t="n">
-        <v>127.4812319713139</v>
+        <v>127.4812319713138</v>
       </c>
       <c r="V25" t="n">
-        <v>101.3027769333111</v>
+        <v>101.3027769333109</v>
       </c>
       <c r="W25" t="n">
-        <v>126.4696630039244</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X25" t="n">
-        <v>72.11476499972747</v>
+        <v>72.1147649997273</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.98963275579516</v>
+        <v>62.98963275579499</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>287.3007974540423</v>
       </c>
       <c r="F26" t="n">
-        <v>306.4726135420195</v>
+        <v>306.4726135420194</v>
       </c>
       <c r="G26" t="n">
         <v>307.9182623317531</v>
@@ -2573,7 +2573,7 @@
         <v>220.9621672311332</v>
       </c>
       <c r="I26" t="n">
-        <v>48.75302591320467</v>
+        <v>48.75302591320468</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>148.7604081536189</v>
       </c>
       <c r="V26" t="n">
-        <v>230.0724161221062</v>
+        <v>230.0724161221061</v>
       </c>
       <c r="W26" t="n">
         <v>255.3725156000631</v>
       </c>
       <c r="X26" t="n">
-        <v>274.6727738328097</v>
+        <v>274.6727738328096</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.0693716290085</v>
+        <v>286.0693716290084</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.1803157534334</v>
       </c>
       <c r="H27" t="n">
-        <v>96.41874164113862</v>
+        <v>96.41874164113864</v>
       </c>
       <c r="I27" t="n">
-        <v>58.71574796301677</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.98778846128315</v>
+        <v>42.98778846128316</v>
       </c>
       <c r="S27" t="n">
         <v>146.4254034700827</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.18274975662412</v>
+        <v>78.1827497566241</v>
       </c>
       <c r="C28" t="n">
-        <v>64.3827446020246</v>
+        <v>64.38274460202459</v>
       </c>
       <c r="D28" t="n">
-        <v>48.00410899960299</v>
+        <v>48.00410899960298</v>
       </c>
       <c r="E28" t="n">
-        <v>46.95185885538244</v>
+        <v>46.95185885538243</v>
       </c>
       <c r="F28" t="n">
-        <v>47.41878318356875</v>
+        <v>47.41878318356873</v>
       </c>
       <c r="G28" t="n">
-        <v>63.47475676009468</v>
+        <v>63.47475676009466</v>
       </c>
       <c r="H28" t="n">
-        <v>52.29715258546307</v>
+        <v>52.29715258546304</v>
       </c>
       <c r="I28" t="n">
-        <v>32.64616679361002</v>
+        <v>32.64616679361001</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65464060095191</v>
+        <v>34.65464060095189</v>
       </c>
       <c r="S28" t="n">
-        <v>104.2237472692228</v>
+        <v>104.2237472692227</v>
       </c>
       <c r="T28" t="n">
         <v>126.3755284291451</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.70799995857742</v>
+        <v>70.70799995857743</v>
       </c>
       <c r="T29" t="n">
         <v>116.443738921479</v>
@@ -2965,7 +2965,7 @@
         <v>63.47475676009466</v>
       </c>
       <c r="H31" t="n">
-        <v>52.29715258546305</v>
+        <v>52.29715258546304</v>
       </c>
       <c r="I31" t="n">
         <v>32.64616679361001</v>
@@ -3029,25 +3029,25 @@
         <v>251.4501286956956</v>
       </c>
       <c r="C32" t="n">
-        <v>239.4614456533773</v>
+        <v>239.4614456533774</v>
       </c>
       <c r="D32" t="n">
-        <v>230.4427496979053</v>
+        <v>230.4427496979054</v>
       </c>
       <c r="E32" t="n">
-        <v>252.1848872678108</v>
+        <v>252.1848872678109</v>
       </c>
       <c r="F32" t="n">
-        <v>271.356703355788</v>
+        <v>271.3567033557881</v>
       </c>
       <c r="G32" t="n">
-        <v>272.8023521455216</v>
+        <v>272.8023521455217</v>
       </c>
       <c r="H32" t="n">
-        <v>185.8462570449017</v>
+        <v>185.8462570449018</v>
       </c>
       <c r="I32" t="n">
-        <v>13.63711572697321</v>
+        <v>13.63711572697329</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.59208977234596</v>
+        <v>35.59208977234604</v>
       </c>
       <c r="T32" t="n">
-        <v>81.32782873524749</v>
+        <v>81.32782873524758</v>
       </c>
       <c r="U32" t="n">
-        <v>113.6444979673874</v>
+        <v>113.6444979673875</v>
       </c>
       <c r="V32" t="n">
-        <v>194.9565059358747</v>
+        <v>194.9565059358748</v>
       </c>
       <c r="W32" t="n">
-        <v>220.2566054138316</v>
+        <v>220.2566054138317</v>
       </c>
       <c r="X32" t="n">
-        <v>239.5568636465782</v>
+        <v>239.5568636465783</v>
       </c>
       <c r="Y32" t="n">
         <v>250.953461442777</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.06683957039263</v>
+        <v>43.06683957039272</v>
       </c>
       <c r="C34" t="n">
-        <v>29.26683441579311</v>
+        <v>29.2668344157932</v>
       </c>
       <c r="D34" t="n">
-        <v>12.8881988133715</v>
+        <v>12.88819881337159</v>
       </c>
       <c r="E34" t="n">
-        <v>11.83594866915095</v>
+        <v>11.83594866915104</v>
       </c>
       <c r="F34" t="n">
-        <v>12.30287299733726</v>
+        <v>12.30287299733735</v>
       </c>
       <c r="G34" t="n">
-        <v>28.35884657386318</v>
+        <v>28.35884657386327</v>
       </c>
       <c r="H34" t="n">
-        <v>17.18124239923158</v>
+        <v>17.18124239923166</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.10783708299127</v>
+        <v>69.10783708299135</v>
       </c>
       <c r="T34" t="n">
-        <v>91.25961824291365</v>
+        <v>91.25961824291373</v>
       </c>
       <c r="U34" t="n">
-        <v>145.6534310080211</v>
+        <v>145.6534310080212</v>
       </c>
       <c r="V34" t="n">
-        <v>119.4749759700182</v>
+        <v>119.4749759700183</v>
       </c>
       <c r="W34" t="n">
-        <v>144.6418620406315</v>
+        <v>144.6418620406316</v>
       </c>
       <c r="X34" t="n">
-        <v>90.2869640364346</v>
+        <v>90.28696403643468</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.16183179250228</v>
+        <v>81.16183179250237</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3272,13 @@
         <v>212.2705506611981</v>
       </c>
       <c r="E35" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311036</v>
       </c>
       <c r="F35" t="n">
         <v>253.1845043190808</v>
       </c>
       <c r="G35" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088144</v>
       </c>
       <c r="H35" t="n">
         <v>167.6740580081945</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.4198907356388</v>
+        <v>17.41989073563877</v>
       </c>
       <c r="T35" t="n">
-        <v>63.15562969854034</v>
+        <v>63.15562969854031</v>
       </c>
       <c r="U35" t="n">
-        <v>95.47229893068024</v>
+        <v>95.47229893068021</v>
       </c>
       <c r="V35" t="n">
         <v>176.7843068991675</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.89464053368548</v>
+        <v>24.89464053368545</v>
       </c>
       <c r="C37" t="n">
-        <v>11.09463537908596</v>
+        <v>11.09463537908593</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.18664753715603</v>
+        <v>10.186647537156</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>96.53472542087026</v>
+        <v>50.93563804628408</v>
       </c>
       <c r="T37" t="n">
-        <v>73.08741920620649</v>
+        <v>73.08741920620646</v>
       </c>
       <c r="U37" t="n">
         <v>127.4812319713139</v>
       </c>
       <c r="V37" t="n">
-        <v>101.3027769333111</v>
+        <v>146.9018643078974</v>
       </c>
       <c r="W37" t="n">
         <v>126.4696630039243</v>
       </c>
       <c r="X37" t="n">
-        <v>72.11476499972744</v>
+        <v>72.11476499972741</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.98963275579513</v>
+        <v>62.9896327557951</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.2779296589884</v>
+        <v>233.2779296589883</v>
       </c>
       <c r="C38" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2705506611981</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E38" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F38" t="n">
-        <v>253.1845043190808</v>
+        <v>253.1845043190807</v>
       </c>
       <c r="G38" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H38" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.4198907356388</v>
+        <v>17.41989073563869</v>
       </c>
       <c r="T38" t="n">
-        <v>63.15562969854034</v>
+        <v>63.15562969854022</v>
       </c>
       <c r="U38" t="n">
-        <v>95.47229893068024</v>
+        <v>95.47229893068013</v>
       </c>
       <c r="V38" t="n">
-        <v>176.7843068991675</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W38" t="n">
-        <v>202.0844063771244</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X38" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y38" t="n">
-        <v>232.7812624060698</v>
+        <v>232.7812624060697</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.89464053368548</v>
+        <v>24.89464053368536</v>
       </c>
       <c r="C40" t="n">
-        <v>11.09463537908596</v>
+        <v>11.09463537908584</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.18664753715603</v>
+        <v>10.18664753715591</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>50.93563804628411</v>
+        <v>50.935638046284</v>
       </c>
       <c r="T40" t="n">
-        <v>73.08741920620649</v>
+        <v>73.08741920620638</v>
       </c>
       <c r="U40" t="n">
-        <v>127.4812319713139</v>
+        <v>127.4812319713138</v>
       </c>
       <c r="V40" t="n">
-        <v>101.3027769333111</v>
+        <v>146.9018643078982</v>
       </c>
       <c r="W40" t="n">
-        <v>172.0687503785105</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11476499972744</v>
+        <v>72.11476499972733</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.98963275579513</v>
+        <v>62.98963275579501</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.2779296589884</v>
+        <v>233.2779296589883</v>
       </c>
       <c r="C41" t="n">
-        <v>221.2892466166702</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D41" t="n">
-        <v>212.2705506611981</v>
+        <v>212.270550661198</v>
       </c>
       <c r="E41" t="n">
-        <v>234.0126882311037</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F41" t="n">
-        <v>253.1845043190808</v>
+        <v>253.1845043190807</v>
       </c>
       <c r="G41" t="n">
-        <v>254.6301531088145</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H41" t="n">
-        <v>167.6740580081946</v>
+        <v>167.6740580081944</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.41989073563882</v>
+        <v>17.41989073563869</v>
       </c>
       <c r="T41" t="n">
-        <v>63.15562969854037</v>
+        <v>63.15562969854022</v>
       </c>
       <c r="U41" t="n">
-        <v>95.47229893068027</v>
+        <v>95.47229893068013</v>
       </c>
       <c r="V41" t="n">
-        <v>176.7843068991675</v>
+        <v>176.7843068991674</v>
       </c>
       <c r="W41" t="n">
-        <v>202.0844063771245</v>
+        <v>202.0844063771243</v>
       </c>
       <c r="X41" t="n">
-        <v>221.3846646098711</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y41" t="n">
-        <v>232.7812624060698</v>
+        <v>232.7812624060697</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.8946405336855</v>
+        <v>24.89464053368536</v>
       </c>
       <c r="C43" t="n">
-        <v>11.09463537908599</v>
+        <v>11.09463537908584</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.78573491174203</v>
+        <v>10.18664753715591</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.93563804628414</v>
+        <v>50.935638046284</v>
       </c>
       <c r="T43" t="n">
-        <v>73.08741920620652</v>
+        <v>73.08741920620638</v>
       </c>
       <c r="U43" t="n">
-        <v>127.4812319713139</v>
+        <v>173.0803193459011</v>
       </c>
       <c r="V43" t="n">
-        <v>101.3027769333111</v>
+        <v>101.302776933311</v>
       </c>
       <c r="W43" t="n">
-        <v>126.4696630039244</v>
+        <v>126.4696630039242</v>
       </c>
       <c r="X43" t="n">
-        <v>72.11476499972747</v>
+        <v>72.11476499972733</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.98963275579516</v>
+        <v>62.98963275579501</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.41989073563876</v>
+        <v>17.41989073563877</v>
       </c>
       <c r="T44" t="n">
         <v>63.15562969854031</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.76270265041716</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.8363847241691</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.93563804628408</v>
+        <v>96.53472542087049</v>
       </c>
       <c r="T46" t="n">
         <v>73.08741920620646</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>307.2335277601064</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="C8" t="n">
-        <v>307.2335277601064</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="D8" t="n">
-        <v>307.2335277601064</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331244293673</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="F8" t="n">
-        <v>160.0223377799417</v>
+        <v>30.86731404393732</v>
       </c>
       <c r="G8" t="n">
-        <v>147.9587552745337</v>
+        <v>18.80373153852935</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9587552745337</v>
+        <v>18.80373153852935</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4808,16 +4808,16 @@
         <v>82.85689621660021</v>
       </c>
       <c r="L8" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="M8" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="N8" t="n">
-        <v>179.7411328942751</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="O8" t="n">
-        <v>314.1132381987326</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="P8" t="n">
         <v>448.4853435031901</v>
@@ -4829,25 +4829,25 @@
         <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>444.3339310908456</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T8" t="n">
-        <v>444.3339310908456</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="U8" t="n">
-        <v>444.3339310908456</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="V8" t="n">
-        <v>444.3339310908456</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="W8" t="n">
-        <v>444.3339310908456</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="X8" t="n">
-        <v>444.3339310908456</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="Y8" t="n">
-        <v>444.3339310908456</v>
+        <v>40.97810069336293</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85835194379454</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>145.5521499939202</v>
       </c>
       <c r="F9" t="n">
         <v>10.85835194379454</v>
@@ -4884,22 +4884,22 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>139.8012812763547</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L9" t="n">
-        <v>274.1733865808121</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M9" t="n">
-        <v>408.5454918852696</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="N9" t="n">
-        <v>542.9175971897271</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="O9" t="n">
-        <v>542.9175971897271</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="P9" t="n">
-        <v>542.9175971897271</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
@@ -4908,25 +4908,25 @@
         <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>346.0329249539337</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T9" t="n">
-        <v>208.9325216231946</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U9" t="n">
-        <v>71.83211829245539</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="V9" t="n">
-        <v>10.85835194379454</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="W9" t="n">
-        <v>10.85835194379454</v>
+        <v>419.7529566553985</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>282.6525533246594</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>145.5521499939202</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C10" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D10" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E10" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4981,31 +4981,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S10" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T10" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U10" t="n">
-        <v>482.2168005218393</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V10" t="n">
-        <v>482.2168005218393</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W10" t="n">
-        <v>482.2168005218393</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X10" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y10" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.624767760279</v>
+        <v>987.2377570398562</v>
       </c>
       <c r="C11" t="n">
-        <v>940.7159340370545</v>
+        <v>987.2377570398562</v>
       </c>
       <c r="D11" t="n">
-        <v>940.7159340370545</v>
+        <v>698.4387172110481</v>
       </c>
       <c r="E11" t="n">
-        <v>629.9551390871293</v>
+        <v>698.4387172110481</v>
       </c>
       <c r="F11" t="n">
-        <v>629.9551390871293</v>
+        <v>698.4387172110481</v>
       </c>
       <c r="G11" t="n">
-        <v>298.3686220385066</v>
+        <v>366.8522001624255</v>
       </c>
       <c r="H11" t="n">
-        <v>54.61654448545925</v>
+        <v>123.1001226093785</v>
       </c>
       <c r="I11" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J11" t="n">
-        <v>166.2674185418012</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K11" t="n">
-        <v>467.8144998655662</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L11" t="n">
-        <v>891.8803257637592</v>
+        <v>891.880325763758</v>
       </c>
       <c r="M11" t="n">
-        <v>1369.884924173392</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.353308329476</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O11" t="n">
-        <v>2220.694643393618</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P11" t="n">
-        <v>2518.270574687121</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q11" t="n">
-        <v>2664.833632509941</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R11" t="n">
-        <v>2664.833632509941</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S11" t="n">
-        <v>2572.853441090789</v>
+        <v>2572.853441090785</v>
       </c>
       <c r="T11" t="n">
-        <v>2434.675533547493</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="U11" t="n">
-        <v>2434.675533547493</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="V11" t="n">
-        <v>2434.675533547493</v>
+        <v>2010.900176609619</v>
       </c>
       <c r="W11" t="n">
-        <v>2156.165528349062</v>
+        <v>1732.390171411189</v>
       </c>
       <c r="X11" t="n">
-        <v>1858.160312814524</v>
+        <v>1606.773302094101</v>
       </c>
       <c r="Y11" t="n">
-        <v>1548.64338233433</v>
+        <v>1297.256371613907</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I12" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J12" t="n">
-        <v>53.29667265019881</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4954333026022</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L12" t="n">
-        <v>412.9885134793901</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M12" t="n">
-        <v>963.4667207660581</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N12" t="n">
-        <v>1541.909351207844</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O12" t="n">
-        <v>1995.563118554408</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P12" t="n">
         <v>2346.981143485614</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>555.9656611395227</v>
+        <v>122.3436408784677</v>
       </c>
       <c r="C13" t="n">
-        <v>470.3746165451712</v>
+        <v>122.3436408784677</v>
       </c>
       <c r="D13" t="n">
-        <v>401.3276483169021</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="E13" t="n">
-        <v>333.3435590221891</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="F13" t="n">
-        <v>264.8878289919344</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="G13" t="n">
-        <v>180.2139438338755</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H13" t="n">
-        <v>106.8305679431215</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I13" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J13" t="n">
-        <v>92.09691108333308</v>
+        <v>92.09691108333307</v>
       </c>
       <c r="K13" t="n">
-        <v>233.2121540029764</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L13" t="n">
         <v>448.3659302505777</v>
       </c>
       <c r="M13" t="n">
-        <v>682.6561851132411</v>
+        <v>682.6561851132417</v>
       </c>
       <c r="N13" t="n">
-        <v>916.5681650535106</v>
+        <v>916.5681650535111</v>
       </c>
       <c r="O13" t="n">
         <v>1127.991847180004</v>
@@ -5224,25 +5224,25 @@
         <v>1306.655064076298</v>
       </c>
       <c r="S13" t="n">
-        <v>1180.820582444372</v>
+        <v>1180.820582444373</v>
       </c>
       <c r="T13" t="n">
-        <v>1032.610564287273</v>
+        <v>1032.610564287274</v>
       </c>
       <c r="U13" t="n">
-        <v>979.4340235381997</v>
+        <v>829.4573009128935</v>
       </c>
       <c r="V13" t="n">
-        <v>802.7236440405904</v>
+        <v>652.7469214152844</v>
       </c>
       <c r="W13" t="n">
-        <v>802.7236440405904</v>
+        <v>450.6154448766518</v>
       </c>
       <c r="X13" t="n">
-        <v>655.4961048799344</v>
+        <v>303.3879057159959</v>
       </c>
       <c r="Y13" t="n">
-        <v>655.4961048799344</v>
+        <v>165.3776718522412</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1228.195102030602</v>
+        <v>814.8494108224062</v>
       </c>
       <c r="C14" t="n">
-        <v>1228.195102030602</v>
+        <v>516.9405770991816</v>
       </c>
       <c r="D14" t="n">
-        <v>939.3960622017938</v>
+        <v>516.9405770991816</v>
       </c>
       <c r="E14" t="n">
-        <v>628.6352672518688</v>
+        <v>516.9405770991816</v>
       </c>
       <c r="F14" t="n">
-        <v>628.6352672518688</v>
+        <v>516.9405770991816</v>
       </c>
       <c r="G14" t="n">
-        <v>297.048750203246</v>
+        <v>366.8522001624256</v>
       </c>
       <c r="H14" t="n">
-        <v>53.2966726501988</v>
+        <v>123.1001226093786</v>
       </c>
       <c r="I14" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J14" t="n">
-        <v>166.2674185418012</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K14" t="n">
-        <v>467.8144998655661</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L14" t="n">
-        <v>891.8803257637586</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M14" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N14" t="n">
-        <v>1834.353308329475</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O14" t="n">
-        <v>2220.694643393617</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P14" t="n">
-        <v>2518.27057468712</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2664.83363250994</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R14" t="n">
-        <v>2664.83363250994</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S14" t="n">
-        <v>2572.853441090787</v>
+        <v>2572.853441090785</v>
       </c>
       <c r="T14" t="n">
-        <v>2434.675533547492</v>
+        <v>2434.67553354749</v>
       </c>
       <c r="U14" t="n">
-        <v>2434.675533547492</v>
+        <v>2263.85452576971</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.245867817816</v>
+        <v>2010.90017660962</v>
       </c>
       <c r="W14" t="n">
-        <v>2145.735862619385</v>
+        <v>1732.390171411189</v>
       </c>
       <c r="X14" t="n">
-        <v>1847.730647084847</v>
+        <v>1434.384955876651</v>
       </c>
       <c r="Y14" t="n">
-        <v>1538.213716604653</v>
+        <v>1124.868025396457</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C15" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D15" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E15" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F15" t="n">
         <v>338.4631427083693</v>
@@ -5352,25 +5352,25 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I15" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9535817797793</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1523424321827</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0560204948504</v>
+        <v>559.8572598424466</v>
       </c>
       <c r="M15" t="n">
-        <v>1381.534227781518</v>
+        <v>1110.335467129114</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.909351207844</v>
+        <v>1688.7780975709</v>
       </c>
       <c r="O15" t="n">
-        <v>1995.563118554408</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P15" t="n">
         <v>2346.981143485614</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.9815718448101</v>
+        <v>220.9403285667207</v>
       </c>
       <c r="C16" t="n">
-        <v>402.3905272504585</v>
+        <v>135.3492839723692</v>
       </c>
       <c r="D16" t="n">
-        <v>333.3435590221893</v>
+        <v>66.30231574410018</v>
       </c>
       <c r="E16" t="n">
-        <v>333.3435590221893</v>
+        <v>66.30231574410018</v>
       </c>
       <c r="F16" t="n">
-        <v>264.8878289919345</v>
+        <v>66.30231574410018</v>
       </c>
       <c r="G16" t="n">
-        <v>180.2139438338757</v>
+        <v>66.30231574410018</v>
       </c>
       <c r="H16" t="n">
-        <v>106.8305679431215</v>
+        <v>53.29667265019876</v>
       </c>
       <c r="I16" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019876</v>
       </c>
       <c r="J16" t="n">
-        <v>92.096911083333</v>
+        <v>92.09691108333305</v>
       </c>
       <c r="K16" t="n">
-        <v>233.2121540029763</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L16" t="n">
-        <v>448.3659302505775</v>
+        <v>448.3659302505777</v>
       </c>
       <c r="M16" t="n">
         <v>682.6561851132411</v>
@@ -5458,28 +5458,28 @@
         <v>1362.217720790778</v>
       </c>
       <c r="R16" t="n">
-        <v>1306.655064076298</v>
+        <v>1362.217720790778</v>
       </c>
       <c r="S16" t="n">
-        <v>1180.820582444372</v>
+        <v>1236.383239158852</v>
       </c>
       <c r="T16" t="n">
-        <v>1032.610564287272</v>
+        <v>1088.173221001753</v>
       </c>
       <c r="U16" t="n">
-        <v>829.4573009128924</v>
+        <v>885.0199576273729</v>
       </c>
       <c r="V16" t="n">
-        <v>652.7469214152829</v>
+        <v>708.3095781297638</v>
       </c>
       <c r="W16" t="n">
-        <v>652.7469214152829</v>
+        <v>506.1781015911313</v>
       </c>
       <c r="X16" t="n">
-        <v>652.7469214152829</v>
+        <v>358.9505624304753</v>
       </c>
       <c r="Y16" t="n">
-        <v>514.7366875515281</v>
+        <v>220.9403285667207</v>
       </c>
     </row>
     <row r="17">
@@ -5495,64 +5495,64 @@
         <v>1186.399656820292</v>
       </c>
       <c r="D17" t="n">
-        <v>971.9849591827178</v>
+        <v>971.9849591827183</v>
       </c>
       <c r="E17" t="n">
-        <v>735.6085064240272</v>
+        <v>735.6085064240278</v>
       </c>
       <c r="F17" t="n">
-        <v>479.8665828694</v>
+        <v>479.8665828693995</v>
       </c>
       <c r="G17" t="n">
-        <v>222.6644080120116</v>
+        <v>222.6644080120113</v>
       </c>
       <c r="H17" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I17" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J17" t="n">
-        <v>166.2674185418014</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K17" t="n">
-        <v>467.8144998655662</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L17" t="n">
-        <v>891.8803257637587</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M17" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N17" t="n">
-        <v>1834.353308329476</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O17" t="n">
-        <v>2220.694643393618</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P17" t="n">
-        <v>2518.270574687121</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q17" t="n">
-        <v>2664.83363250994</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R17" t="n">
-        <v>2664.83363250994</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S17" t="n">
-        <v>2647.237783282023</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T17" t="n">
-        <v>2583.444217929961</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U17" t="n">
-        <v>2487.007552343415</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V17" t="n">
-        <v>2308.437545374559</v>
+        <v>2308.437545374558</v>
       </c>
       <c r="W17" t="n">
-        <v>2104.311882367363</v>
+        <v>2104.311882367362</v>
       </c>
       <c r="X17" t="n">
         <v>1880.691009024058</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C18" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D18" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E18" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F18" t="n">
         <v>338.4631427083693</v>
@@ -5589,25 +5589,25 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I18" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9535817797793</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1523424321828</v>
+        <v>324.495433302602</v>
       </c>
       <c r="L18" t="n">
-        <v>831.0560204948505</v>
+        <v>746.3991113652694</v>
       </c>
       <c r="M18" t="n">
-        <v>1381.534227781518</v>
+        <v>963.4667207660596</v>
       </c>
       <c r="N18" t="n">
-        <v>1541.909351207844</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O18" t="n">
-        <v>1995.563118554408</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P18" t="n">
         <v>2346.981143485614</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.79291802014032</v>
+        <v>74.79291802013987</v>
       </c>
       <c r="C19" t="n">
-        <v>63.58621561702314</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="D19" t="n">
-        <v>63.58621561702314</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="E19" t="n">
-        <v>63.58621561702314</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="F19" t="n">
-        <v>63.58621561702314</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="G19" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H19" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I19" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J19" t="n">
-        <v>53.29667265019881</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K19" t="n">
-        <v>112.059086632259</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L19" t="n">
-        <v>244.8600339422771</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M19" t="n">
-        <v>396.7974598673575</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N19" t="n">
-        <v>548.3566108700437</v>
+        <v>548.3566108700431</v>
       </c>
       <c r="O19" t="n">
-        <v>677.4274640589538</v>
+        <v>677.4274640589531</v>
       </c>
       <c r="P19" t="n">
-        <v>766.5857006714886</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="Q19" t="n">
-        <v>766.5857006714886</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R19" t="n">
-        <v>766.5857006714886</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="S19" t="n">
-        <v>669.0758770140436</v>
+        <v>669.0758770140418</v>
       </c>
       <c r="T19" t="n">
-        <v>595.2502010481784</v>
+        <v>595.2502010481768</v>
       </c>
       <c r="U19" t="n">
-        <v>466.4812798650329</v>
+        <v>466.4812798650315</v>
       </c>
       <c r="V19" t="n">
-        <v>364.1552425586581</v>
+        <v>364.1552425586568</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4081082112597</v>
+        <v>236.4081082112587</v>
       </c>
       <c r="X19" t="n">
-        <v>163.564911241838</v>
+        <v>163.5649112418372</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.93901956931762</v>
+        <v>99.93901956931697</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1409.924148352282</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C20" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D20" t="n">
-        <v>971.9849591827183</v>
+        <v>971.9849591827176</v>
       </c>
       <c r="E20" t="n">
-        <v>735.6085064240276</v>
+        <v>735.6085064240272</v>
       </c>
       <c r="F20" t="n">
-        <v>479.8665828694004</v>
+        <v>479.8665828694002</v>
       </c>
       <c r="G20" t="n">
-        <v>222.6644080120116</v>
+        <v>222.6644080120113</v>
       </c>
       <c r="H20" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I20" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J20" t="n">
-        <v>166.2674185418012</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K20" t="n">
-        <v>467.8144998655661</v>
+        <v>467.8144998655653</v>
       </c>
       <c r="L20" t="n">
-        <v>891.8803257637586</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M20" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N20" t="n">
-        <v>1834.353308329475</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O20" t="n">
-        <v>2220.694643393617</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P20" t="n">
-        <v>2518.27057468712</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q20" t="n">
-        <v>2664.83363250994</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R20" t="n">
-        <v>2664.83363250994</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S20" t="n">
-        <v>2647.237783282022</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T20" t="n">
-        <v>2583.444217929961</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U20" t="n">
-        <v>2487.007552343415</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V20" t="n">
-        <v>2308.437545374559</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W20" t="n">
-        <v>2104.311882367363</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X20" t="n">
-        <v>1880.691009024059</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y20" t="n">
-        <v>1645.558420735099</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I21" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9535817797793</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1523424321827</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="L21" t="n">
-        <v>831.0560204948504</v>
+        <v>475.2003507128662</v>
       </c>
       <c r="M21" t="n">
-        <v>1381.534227781518</v>
+        <v>1025.678557999534</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.909351207844</v>
+        <v>1604.121188441319</v>
       </c>
       <c r="O21" t="n">
-        <v>1995.563118554408</v>
+        <v>2057.774955787883</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.981143485614</v>
+        <v>2409.192980719089</v>
       </c>
       <c r="Q21" t="n">
         <v>2537.723294723684</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.79291802014032</v>
+        <v>74.79291802013987</v>
       </c>
       <c r="C22" t="n">
-        <v>63.58621561702313</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="D22" t="n">
-        <v>63.58621561702313</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="E22" t="n">
-        <v>63.58621561702313</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="F22" t="n">
-        <v>63.58621561702313</v>
+        <v>63.58621561702287</v>
       </c>
       <c r="G22" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H22" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I22" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J22" t="n">
-        <v>53.2966726501988</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K22" t="n">
-        <v>112.059086632259</v>
+        <v>112.0590866322589</v>
       </c>
       <c r="L22" t="n">
-        <v>244.8600339422771</v>
+        <v>244.8600339422768</v>
       </c>
       <c r="M22" t="n">
-        <v>396.7974598673575</v>
+        <v>396.7974598673571</v>
       </c>
       <c r="N22" t="n">
-        <v>548.3566108700437</v>
+        <v>548.3566108700431</v>
       </c>
       <c r="O22" t="n">
-        <v>677.4274640589538</v>
+        <v>677.4274640589531</v>
       </c>
       <c r="P22" t="n">
-        <v>766.5857006714886</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="Q22" t="n">
-        <v>766.5857006714886</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R22" t="n">
-        <v>766.5857006714886</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="S22" t="n">
-        <v>669.0758770140436</v>
+        <v>669.0758770140418</v>
       </c>
       <c r="T22" t="n">
-        <v>595.2502010481784</v>
+        <v>595.2502010481768</v>
       </c>
       <c r="U22" t="n">
-        <v>466.4812798650329</v>
+        <v>466.4812798650315</v>
       </c>
       <c r="V22" t="n">
-        <v>364.1552425586581</v>
+        <v>364.1552425586568</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4081082112597</v>
+        <v>236.4081082112587</v>
       </c>
       <c r="X22" t="n">
-        <v>163.564911241838</v>
+        <v>163.5649112418372</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.93901956931762</v>
+        <v>99.93901956931697</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.92414835228</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.399656820291</v>
+        <v>1186.39965682029</v>
       </c>
       <c r="D23" t="n">
-        <v>971.9849591827171</v>
+        <v>971.9849591827162</v>
       </c>
       <c r="E23" t="n">
-        <v>735.6085064240267</v>
+        <v>735.6085064240258</v>
       </c>
       <c r="F23" t="n">
-        <v>479.8665828693996</v>
+        <v>479.8665828693988</v>
       </c>
       <c r="G23" t="n">
-        <v>222.6644080120115</v>
+        <v>222.6644080120113</v>
       </c>
       <c r="H23" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="I23" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="J23" t="n">
-        <v>166.267418541801</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K23" t="n">
-        <v>467.8144998655657</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L23" t="n">
-        <v>891.8803257637583</v>
+        <v>891.8803257637558</v>
       </c>
       <c r="M23" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.884924173388</v>
       </c>
       <c r="N23" t="n">
-        <v>1834.353308329475</v>
+        <v>1834.353308329472</v>
       </c>
       <c r="O23" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393614</v>
       </c>
       <c r="P23" t="n">
-        <v>2518.270574687119</v>
+        <v>2518.270574687116</v>
       </c>
       <c r="Q23" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509936</v>
       </c>
       <c r="R23" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509936</v>
       </c>
       <c r="S23" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282018</v>
       </c>
       <c r="T23" t="n">
-        <v>2583.444217929959</v>
+        <v>2583.444217929957</v>
       </c>
       <c r="U23" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343412</v>
       </c>
       <c r="V23" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374556</v>
       </c>
       <c r="W23" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.31188236736</v>
       </c>
       <c r="X23" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y23" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.558420735096</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C24" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D24" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E24" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F24" t="n">
-        <v>338.4631427083693</v>
+        <v>338.4631427083692</v>
       </c>
       <c r="G24" t="n">
         <v>209.9981773008608</v>
@@ -6063,19 +6063,19 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I24" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9535817797792</v>
+        <v>137.9535817797791</v>
       </c>
       <c r="K24" t="n">
         <v>409.1523424321824</v>
       </c>
       <c r="L24" t="n">
-        <v>831.0560204948499</v>
+        <v>412.9885134793917</v>
       </c>
       <c r="M24" t="n">
-        <v>1381.534227781518</v>
+        <v>963.4667207660593</v>
       </c>
       <c r="N24" t="n">
         <v>1541.909351207845</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.79291802014023</v>
+        <v>74.79291802013984</v>
       </c>
       <c r="C25" t="n">
-        <v>63.58621561702307</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="D25" t="n">
-        <v>63.58621561702307</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="E25" t="n">
-        <v>63.58621561702307</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="F25" t="n">
-        <v>63.58621561702307</v>
+        <v>63.58621561702284</v>
       </c>
       <c r="G25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="H25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="I25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="J25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019872</v>
       </c>
       <c r="K25" t="n">
-        <v>112.0590866322589</v>
+        <v>112.0590866322588</v>
       </c>
       <c r="L25" t="n">
-        <v>244.8600339422768</v>
+        <v>244.8600339422767</v>
       </c>
       <c r="M25" t="n">
-        <v>396.7974598673571</v>
+        <v>396.797459867357</v>
       </c>
       <c r="N25" t="n">
         <v>548.3566108700431</v>
@@ -6172,25 +6172,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S25" t="n">
-        <v>715.1355612307967</v>
+        <v>715.1355612307968</v>
       </c>
       <c r="T25" t="n">
-        <v>595.2502010481782</v>
+        <v>595.2502010481768</v>
       </c>
       <c r="U25" t="n">
-        <v>466.4812798650328</v>
+        <v>466.4812798650315</v>
       </c>
       <c r="V25" t="n">
-        <v>364.1552425586579</v>
+        <v>364.1552425586568</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4081082112596</v>
+        <v>236.4081082112587</v>
       </c>
       <c r="X25" t="n">
-        <v>163.5649112418379</v>
+        <v>163.5649112418371</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.93901956931751</v>
+        <v>99.93901956931694</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1252.919905224304</v>
       </c>
       <c r="E26" t="n">
-        <v>962.7170795131501</v>
+        <v>962.7170795131503</v>
       </c>
       <c r="F26" t="n">
-        <v>653.1487830060605</v>
+        <v>653.1487830060601</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1202351962088</v>
+        <v>342.1202351962083</v>
       </c>
       <c r="H26" t="n">
         <v>118.9261268819319</v>
@@ -6227,34 +6227,34 @@
         <v>285.1530866416282</v>
       </c>
       <c r="K26" t="n">
-        <v>689.2018625538957</v>
+        <v>689.2018625538956</v>
       </c>
       <c r="L26" t="n">
         <v>1215.769383040591</v>
       </c>
       <c r="M26" t="n">
-        <v>1735.085611664183</v>
+        <v>1796.275676038726</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.05569040877</v>
+        <v>2302.055690408769</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.898720061415</v>
+        <v>2790.898720061414</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.97634594342</v>
+        <v>3190.976345943419</v>
       </c>
       <c r="Q26" t="n">
         <v>3440.041098354742</v>
       </c>
       <c r="R26" t="n">
-        <v>3484.032308076159</v>
+        <v>3484.032308076158</v>
       </c>
       <c r="S26" t="n">
-        <v>3412.610085895778</v>
+        <v>3412.610085895777</v>
       </c>
       <c r="T26" t="n">
-        <v>3294.990147591253</v>
+        <v>3294.990147591252</v>
       </c>
       <c r="U26" t="n">
         <v>3144.727109052244</v>
@@ -6306,22 +6306,22 @@
         <v>69.68064616152317</v>
       </c>
       <c r="K27" t="n">
-        <v>198.2109601661182</v>
+        <v>340.8794068139264</v>
       </c>
       <c r="L27" t="n">
-        <v>620.1146382287858</v>
+        <v>762.7830848765939</v>
       </c>
       <c r="M27" t="n">
-        <v>1170.592845515454</v>
+        <v>1313.261292163261</v>
       </c>
       <c r="N27" t="n">
-        <v>1749.035475957239</v>
+        <v>1891.703922605047</v>
       </c>
       <c r="O27" t="n">
-        <v>2202.689243303803</v>
+        <v>2011.947092065733</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.107268235009</v>
+        <v>2363.365116996938</v>
       </c>
       <c r="Q27" t="n">
         <v>2554.107268235009</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.4438499794489</v>
+        <v>428.4438499794486</v>
       </c>
       <c r="C28" t="n">
-        <v>363.4107746238685</v>
+        <v>363.4107746238682</v>
       </c>
       <c r="D28" t="n">
-        <v>314.9217756343705</v>
+        <v>314.9217756343702</v>
       </c>
       <c r="E28" t="n">
-        <v>267.4956555784287</v>
+        <v>267.4956555784284</v>
       </c>
       <c r="F28" t="n">
-        <v>219.5978947869451</v>
+        <v>219.5978947869448</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4819788676575</v>
+        <v>155.4819788676573</v>
       </c>
       <c r="H28" t="n">
         <v>102.6565722156747</v>
@@ -6388,10 +6388,10 @@
         <v>289.8938588161399</v>
       </c>
       <c r="L28" t="n">
-        <v>525.1965007146601</v>
+        <v>525.1965007146606</v>
       </c>
       <c r="M28" t="n">
-        <v>779.6356212282432</v>
+        <v>779.6356212282434</v>
       </c>
       <c r="N28" t="n">
         <v>1033.696466819432</v>
@@ -6415,19 +6415,19 @@
         <v>1271.859370722266</v>
       </c>
       <c r="U28" t="n">
-        <v>1089.264076586658</v>
+        <v>1089.264076586657</v>
       </c>
       <c r="V28" t="n">
-        <v>933.1116663278195</v>
+        <v>933.1116663278192</v>
       </c>
       <c r="W28" t="n">
-        <v>751.5381590279579</v>
+        <v>751.5381590279576</v>
       </c>
       <c r="X28" t="n">
-        <v>624.8685891060729</v>
+        <v>624.8685891060727</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.4163244810895</v>
+        <v>507.4163244810891</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1798.511840298794</v>
+        <v>1798.511840298795</v>
       </c>
       <c r="C29" t="n">
-        <v>1521.16097581434</v>
+        <v>1521.160975814341</v>
       </c>
       <c r="D29" t="n">
-        <v>1252.919905224303</v>
+        <v>1252.919905224304</v>
       </c>
       <c r="E29" t="n">
-        <v>962.7170795131501</v>
+        <v>962.7170795131503</v>
       </c>
       <c r="F29" t="n">
-        <v>653.1487830060599</v>
+        <v>653.1487830060598</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1202351962083</v>
+        <v>342.1202351962078</v>
       </c>
       <c r="H29" t="n">
         <v>118.9261268819319</v>
       </c>
       <c r="I29" t="n">
-        <v>69.68064616152316</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J29" t="n">
         <v>285.1530866416282</v>
@@ -6467,10 +6467,10 @@
         <v>689.2018625538956</v>
       </c>
       <c r="L29" t="n">
-        <v>1215.769383040591</v>
+        <v>1154.579318666047</v>
       </c>
       <c r="M29" t="n">
-        <v>1796.275676038726</v>
+        <v>1735.085611664183</v>
       </c>
       <c r="N29" t="n">
         <v>2302.055690408769</v>
@@ -6482,7 +6482,7 @@
         <v>3190.976345943419</v>
       </c>
       <c r="Q29" t="n">
-        <v>3440.041098354741</v>
+        <v>3440.041098354742</v>
       </c>
       <c r="R29" t="n">
         <v>3484.032308076158</v>
@@ -6491,19 +6491,19 @@
         <v>3412.610085895777</v>
       </c>
       <c r="T29" t="n">
-        <v>3294.990147591252</v>
+        <v>3294.990147591253</v>
       </c>
       <c r="U29" t="n">
-        <v>3144.727109052243</v>
+        <v>3144.727109052244</v>
       </c>
       <c r="V29" t="n">
-        <v>2912.330729130923</v>
+        <v>2912.330729130924</v>
       </c>
       <c r="W29" t="n">
-        <v>2654.378693171264</v>
+        <v>2654.378693171265</v>
       </c>
       <c r="X29" t="n">
-        <v>2376.931446875496</v>
+        <v>2376.931446875497</v>
       </c>
       <c r="Y29" t="n">
         <v>2087.972485634074</v>
@@ -6537,19 +6537,19 @@
         <v>128.9894824878027</v>
       </c>
       <c r="I30" t="n">
-        <v>69.68064616152316</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J30" t="n">
         <v>154.3375552911036</v>
       </c>
       <c r="K30" t="n">
-        <v>425.5363159435068</v>
+        <v>154.3375552911036</v>
       </c>
       <c r="L30" t="n">
-        <v>847.4399940061743</v>
+        <v>429.372486990716</v>
       </c>
       <c r="M30" t="n">
-        <v>1397.918201292842</v>
+        <v>979.8506942773836</v>
       </c>
       <c r="N30" t="n">
         <v>1558.293324719169</v>
@@ -6601,13 +6601,13 @@
         <v>363.4107746238685</v>
       </c>
       <c r="D31" t="n">
-        <v>314.9217756343706</v>
+        <v>314.9217756343705</v>
       </c>
       <c r="E31" t="n">
         <v>267.4956555784287</v>
       </c>
       <c r="F31" t="n">
-        <v>219.5978947869452</v>
+        <v>219.5978947869451</v>
       </c>
       <c r="G31" t="n">
         <v>155.4819788676576</v>
@@ -6616,22 +6616,22 @@
         <v>102.6565722156747</v>
       </c>
       <c r="I31" t="n">
-        <v>69.68064616152316</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6297502455771</v>
+        <v>128.629750245577</v>
       </c>
       <c r="K31" t="n">
-        <v>289.89385881614</v>
+        <v>289.8938588161399</v>
       </c>
       <c r="L31" t="n">
-        <v>525.1965007146607</v>
+        <v>525.1965007146603</v>
       </c>
       <c r="M31" t="n">
-        <v>779.6356212282437</v>
+        <v>779.6356212282434</v>
       </c>
       <c r="N31" t="n">
-        <v>1033.696466819433</v>
+        <v>1033.696466819432</v>
       </c>
       <c r="O31" t="n">
         <v>1265.269014596845</v>
@@ -6646,7 +6646,7 @@
         <v>1504.787932033749</v>
       </c>
       <c r="S31" t="n">
-        <v>1399.511419640595</v>
+        <v>1399.511419640594</v>
       </c>
       <c r="T31" t="n">
         <v>1271.859370722266</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1539.359173906897</v>
+        <v>1539.359173906898</v>
       </c>
       <c r="C32" t="n">
-        <v>1297.478925772172</v>
+        <v>1297.478925772174</v>
       </c>
       <c r="D32" t="n">
-        <v>1064.708471531864</v>
+        <v>1064.708471531865</v>
       </c>
       <c r="E32" t="n">
-        <v>809.9762621704385</v>
+        <v>809.97626217044</v>
       </c>
       <c r="F32" t="n">
-        <v>535.878582013077</v>
+        <v>535.8785820130784</v>
       </c>
       <c r="G32" t="n">
-        <v>260.3206505529547</v>
+        <v>260.3206505529554</v>
       </c>
       <c r="H32" t="n">
-        <v>72.59715858840862</v>
+        <v>72.59715858840872</v>
       </c>
       <c r="I32" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="J32" t="n">
         <v>171.7930401093308</v>
@@ -6704,22 +6704,22 @@
         <v>473.3401214330955</v>
       </c>
       <c r="L32" t="n">
-        <v>952.1389976615933</v>
+        <v>897.4059473312877</v>
       </c>
       <c r="M32" t="n">
-        <v>1430.143596071226</v>
+        <v>1512.676991413792</v>
       </c>
       <c r="N32" t="n">
-        <v>2031.878425900181</v>
+        <v>1977.145375569876</v>
       </c>
       <c r="O32" t="n">
-        <v>2418.219760964323</v>
+        <v>2363.486710634018</v>
       </c>
       <c r="P32" t="n">
-        <v>2715.795692257826</v>
+        <v>2794.551653063611</v>
       </c>
       <c r="Q32" t="n">
-        <v>2862.358750080645</v>
+        <v>2941.114710886431</v>
       </c>
       <c r="R32" t="n">
         <v>2941.114710886431</v>
@@ -6731,19 +6731,19 @@
         <v>2823.013783100982</v>
       </c>
       <c r="U32" t="n">
-        <v>2708.221360911702</v>
+        <v>2708.221360911703</v>
       </c>
       <c r="V32" t="n">
-        <v>2511.295597340111</v>
+        <v>2511.295597340113</v>
       </c>
       <c r="W32" t="n">
-        <v>2288.81417773018</v>
+        <v>2288.814177730182</v>
       </c>
       <c r="X32" t="n">
-        <v>2046.837547784142</v>
+        <v>2046.837547784143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.349202892448</v>
+        <v>1793.349202892449</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>118.1311305440082</v>
       </c>
       <c r="I33" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="J33" t="n">
         <v>143.4792033473091</v>
@@ -6786,7 +6786,7 @@
         <v>836.5816420623798</v>
       </c>
       <c r="M33" t="n">
-        <v>1387.059849349047</v>
+        <v>968.9923423335892</v>
       </c>
       <c r="N33" t="n">
         <v>1547.434972775375</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.7858738831302</v>
+        <v>171.7858738831307</v>
       </c>
       <c r="C34" t="n">
-        <v>142.2234148772786</v>
+        <v>142.223414877279</v>
       </c>
       <c r="D34" t="n">
-        <v>129.2050322375094</v>
+        <v>129.2050322375098</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2495285312963</v>
+        <v>117.2495285312966</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8223840895415</v>
+        <v>104.8223840895417</v>
       </c>
       <c r="G34" t="n">
-        <v>76.17708451998273</v>
+        <v>76.17708451998283</v>
       </c>
       <c r="H34" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="I34" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="J34" t="n">
-        <v>113.8095514454391</v>
+        <v>152.5361493861515</v>
       </c>
       <c r="K34" t="n">
-        <v>309.8384111003712</v>
+        <v>211.2985633682116</v>
       </c>
       <c r="L34" t="n">
-        <v>442.6393584103891</v>
+        <v>442.1827015209637</v>
       </c>
       <c r="M34" t="n">
-        <v>594.5767843354694</v>
+        <v>594.120127446044</v>
       </c>
       <c r="N34" t="n">
-        <v>746.1359353381555</v>
+        <v>745.6792784487301</v>
       </c>
       <c r="O34" t="n">
-        <v>875.2067885270654</v>
+        <v>874.75013163764</v>
       </c>
       <c r="P34" t="n">
-        <v>964.3650251396001</v>
+        <v>963.9083682501747</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.3650251396001</v>
+        <v>963.9083682501747</v>
       </c>
       <c r="R34" t="n">
-        <v>964.3650251396001</v>
+        <v>964.3650251396014</v>
       </c>
       <c r="S34" t="n">
-        <v>894.5591290961746</v>
+        <v>894.5591290961758</v>
       </c>
       <c r="T34" t="n">
-        <v>802.3776965275749</v>
+        <v>802.3776965275761</v>
       </c>
       <c r="U34" t="n">
-        <v>655.2530187416951</v>
+        <v>655.2530187416961</v>
       </c>
       <c r="V34" t="n">
-        <v>534.5712248325858</v>
+        <v>534.5712248325867</v>
       </c>
       <c r="W34" t="n">
-        <v>388.468333882453</v>
+        <v>388.4683338824537</v>
       </c>
       <c r="X34" t="n">
-        <v>297.2693803102968</v>
+        <v>297.2693803102975</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.2877320350419</v>
+        <v>215.2877320350426</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1186.399656820291</v>
       </c>
       <c r="D35" t="n">
-        <v>971.9849591827174</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E35" t="n">
-        <v>735.6085064240265</v>
+        <v>735.6085064240266</v>
       </c>
       <c r="F35" t="n">
         <v>479.8665828693995</v>
@@ -6929,19 +6929,19 @@
         <v>222.6644080120114</v>
       </c>
       <c r="H35" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I35" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J35" t="n">
         <v>166.2674185418009</v>
       </c>
       <c r="K35" t="n">
-        <v>467.8144998655657</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L35" t="n">
-        <v>891.880325763758</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M35" t="n">
         <v>1369.88492417339</v>
@@ -6962,16 +6962,16 @@
         <v>2664.833632509938</v>
       </c>
       <c r="S35" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282019</v>
       </c>
       <c r="T35" t="n">
         <v>2583.444217929959</v>
       </c>
       <c r="U35" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V35" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W35" t="n">
         <v>2104.311882367361</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C36" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D36" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E36" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F36" t="n">
         <v>338.4631427083693</v>
@@ -7011,7 +7011,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I36" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J36" t="n">
         <v>137.9535817797792</v>
@@ -7020,10 +7020,10 @@
         <v>409.1523424321824</v>
       </c>
       <c r="L36" t="n">
-        <v>831.0560204948499</v>
+        <v>412.9885134793917</v>
       </c>
       <c r="M36" t="n">
-        <v>1381.534227781518</v>
+        <v>963.4667207660593</v>
       </c>
       <c r="N36" t="n">
         <v>1541.909351207845</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.79291802014016</v>
+        <v>74.79291802014009</v>
       </c>
       <c r="C37" t="n">
-        <v>63.58621561702303</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="D37" t="n">
-        <v>63.58621561702303</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="E37" t="n">
-        <v>63.58621561702303</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="F37" t="n">
-        <v>63.58621561702303</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="G37" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H37" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I37" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J37" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K37" t="n">
         <v>112.0590866322589</v>
@@ -7120,25 +7120,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S37" t="n">
-        <v>669.075877014043</v>
+        <v>715.1355612307967</v>
       </c>
       <c r="T37" t="n">
-        <v>595.2502010481779</v>
+        <v>641.3098852649316</v>
       </c>
       <c r="U37" t="n">
-        <v>466.4812798650325</v>
+        <v>512.5409640817862</v>
       </c>
       <c r="V37" t="n">
-        <v>364.1552425586577</v>
+        <v>364.1552425586576</v>
       </c>
       <c r="W37" t="n">
-        <v>236.4081082112594</v>
+        <v>236.4081082112593</v>
       </c>
       <c r="X37" t="n">
-        <v>163.5649112418377</v>
+        <v>163.5649112418376</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.93901956931741</v>
+        <v>99.93901956931731</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>1409.924148352281</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.399656820291</v>
+        <v>1186.399656820292</v>
       </c>
       <c r="D38" t="n">
-        <v>971.9849591827171</v>
+        <v>971.9849591827177</v>
       </c>
       <c r="E38" t="n">
-        <v>735.6085064240266</v>
+        <v>735.6085064240272</v>
       </c>
       <c r="F38" t="n">
-        <v>479.8665828693995</v>
+        <v>479.8665828694002</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120113</v>
       </c>
       <c r="H38" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I38" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J38" t="n">
-        <v>166.2674185418011</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K38" t="n">
-        <v>467.8144998655658</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L38" t="n">
-        <v>891.880325763758</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M38" t="n">
         <v>1369.88492417339</v>
@@ -7187,7 +7187,7 @@
         <v>1834.353308329474</v>
       </c>
       <c r="O38" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P38" t="n">
         <v>2518.270574687118</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C39" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D39" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E39" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F39" t="n">
         <v>338.4631427083693</v>
@@ -7248,19 +7248,19 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I39" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9535817797792</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1523424321824</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="L39" t="n">
-        <v>831.0560204948499</v>
+        <v>412.9885134793917</v>
       </c>
       <c r="M39" t="n">
-        <v>1381.534227781518</v>
+        <v>963.4667207660593</v>
       </c>
       <c r="N39" t="n">
         <v>1541.909351207845</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.79291802014016</v>
+        <v>74.79291802013992</v>
       </c>
       <c r="C40" t="n">
-        <v>63.58621561702303</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="D40" t="n">
-        <v>63.58621561702303</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="E40" t="n">
-        <v>63.58621561702303</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="F40" t="n">
-        <v>63.58621561702303</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="G40" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H40" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I40" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J40" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K40" t="n">
         <v>112.0590866322589</v>
@@ -7357,25 +7357,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S40" t="n">
-        <v>715.1355612307967</v>
+        <v>715.1355612307968</v>
       </c>
       <c r="T40" t="n">
-        <v>641.3098852649316</v>
+        <v>641.3098852649318</v>
       </c>
       <c r="U40" t="n">
-        <v>512.5409640817862</v>
+        <v>512.5409640817866</v>
       </c>
       <c r="V40" t="n">
-        <v>410.2149267754114</v>
+        <v>364.1552425586571</v>
       </c>
       <c r="W40" t="n">
-        <v>236.4081082112594</v>
+        <v>236.4081082112588</v>
       </c>
       <c r="X40" t="n">
-        <v>163.5649112418377</v>
+        <v>163.5649112418373</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.93901956931741</v>
+        <v>99.93901956931705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.924148352282</v>
       </c>
       <c r="C41" t="n">
-        <v>1186.399656820291</v>
+        <v>1186.399656820292</v>
       </c>
       <c r="D41" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827183</v>
       </c>
       <c r="E41" t="n">
-        <v>735.6085064240261</v>
+        <v>735.6085064240278</v>
       </c>
       <c r="F41" t="n">
-        <v>479.8665828693991</v>
+        <v>479.8665828694009</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6644080120115</v>
+        <v>222.6644080120113</v>
       </c>
       <c r="H41" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I41" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J41" t="n">
-        <v>166.267418541801</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K41" t="n">
-        <v>467.8144998655657</v>
+        <v>467.8144998655655</v>
       </c>
       <c r="L41" t="n">
-        <v>891.8803257637583</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M41" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N41" t="n">
-        <v>1834.353308329475</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O41" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P41" t="n">
-        <v>2518.270574687119</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q41" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R41" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S41" t="n">
         <v>2647.23778328202</v>
@@ -7442,19 +7442,19 @@
         <v>2583.444217929959</v>
       </c>
       <c r="U41" t="n">
-        <v>2487.007552343413</v>
+        <v>2487.007552343414</v>
       </c>
       <c r="V41" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374558</v>
       </c>
       <c r="W41" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.311882367362</v>
       </c>
       <c r="X41" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024058</v>
       </c>
       <c r="Y41" t="n">
-        <v>1645.558420735097</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C42" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D42" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E42" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F42" t="n">
         <v>338.4631427083693</v>
@@ -7485,19 +7485,19 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I42" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9535817797792</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1523424321824</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0560204948499</v>
+        <v>475.2003507128662</v>
       </c>
       <c r="M42" t="n">
-        <v>1381.534227781518</v>
+        <v>1025.678557999534</v>
       </c>
       <c r="N42" t="n">
         <v>1541.909351207845</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.8526022368937</v>
+        <v>74.79291802013992</v>
       </c>
       <c r="C43" t="n">
-        <v>109.6458998337766</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="D43" t="n">
-        <v>109.6458998337766</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="E43" t="n">
-        <v>109.6458998337766</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="F43" t="n">
-        <v>109.6458998337766</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="G43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J43" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K43" t="n">
         <v>112.0590866322589</v>
@@ -7594,25 +7594,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S43" t="n">
-        <v>715.1355612307967</v>
+        <v>715.1355612307968</v>
       </c>
       <c r="T43" t="n">
-        <v>641.3098852649316</v>
+        <v>641.3098852649318</v>
       </c>
       <c r="U43" t="n">
-        <v>512.5409640817862</v>
+        <v>466.4812798650318</v>
       </c>
       <c r="V43" t="n">
-        <v>410.2149267754114</v>
+        <v>364.1552425586571</v>
       </c>
       <c r="W43" t="n">
-        <v>282.4677924280131</v>
+        <v>236.4081082112588</v>
       </c>
       <c r="X43" t="n">
-        <v>209.6245954585914</v>
+        <v>163.5649112418373</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.998703786071</v>
+        <v>99.93901956931705</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.92414835228</v>
       </c>
       <c r="C44" t="n">
-        <v>1186.399656820291</v>
+        <v>1186.39965682029</v>
       </c>
       <c r="D44" t="n">
-        <v>971.9849591827174</v>
+        <v>971.9849591827165</v>
       </c>
       <c r="E44" t="n">
-        <v>735.6085064240272</v>
+        <v>735.6085064240262</v>
       </c>
       <c r="F44" t="n">
-        <v>479.8665828694001</v>
+        <v>479.8665828693992</v>
       </c>
       <c r="G44" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H44" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I44" t="n">
-        <v>53.29667265019938</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J44" t="n">
-        <v>166.2674185418016</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K44" t="n">
-        <v>467.8144998655663</v>
+        <v>467.8144998655657</v>
       </c>
       <c r="L44" t="n">
-        <v>891.8803257637585</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M44" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N44" t="n">
-        <v>1834.353308329475</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O44" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P44" t="n">
-        <v>2518.270574687119</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q44" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R44" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S44" t="n">
-        <v>2647.237783282021</v>
+        <v>2647.237783282019</v>
       </c>
       <c r="T44" t="n">
-        <v>2583.44421792996</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U44" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V44" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W44" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.31188236736</v>
       </c>
       <c r="X44" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y44" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.558420735097</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C45" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D45" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E45" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F45" t="n">
         <v>338.4631427083693</v>
@@ -7722,28 +7722,28 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I45" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9535817797792</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1523424321824</v>
+        <v>324.495433302602</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0560204948499</v>
+        <v>746.3991113652694</v>
       </c>
       <c r="M45" t="n">
-        <v>1381.534227781518</v>
+        <v>1296.877318651937</v>
       </c>
       <c r="N45" t="n">
-        <v>1541.909351207845</v>
+        <v>1875.319949093722</v>
       </c>
       <c r="O45" t="n">
-        <v>1995.563118554409</v>
+        <v>2328.973716440286</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.981143485614</v>
+        <v>2537.723294723684</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.723294723684</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.8158499902585</v>
+        <v>74.79291802014009</v>
       </c>
       <c r="C46" t="n">
-        <v>89.60914758714136</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="D46" t="n">
-        <v>89.60914758714136</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="E46" t="n">
-        <v>89.60914758714136</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="F46" t="n">
-        <v>89.60914758714136</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="G46" t="n">
-        <v>79.31960462031712</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H46" t="n">
-        <v>79.31960462031712</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I46" t="n">
-        <v>79.31960462031712</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J46" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K46" t="n">
         <v>112.0590866322589</v>
@@ -7825,31 +7825,31 @@
         <v>766.5857006714878</v>
       </c>
       <c r="Q46" t="n">
-        <v>746.5489484248523</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R46" t="n">
-        <v>746.5489484248523</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="S46" t="n">
-        <v>695.0988089841612</v>
+        <v>669.0758770140428</v>
       </c>
       <c r="T46" t="n">
-        <v>621.2731330182961</v>
+        <v>595.2502010481777</v>
       </c>
       <c r="U46" t="n">
-        <v>492.5042118351507</v>
+        <v>466.4812798650323</v>
       </c>
       <c r="V46" t="n">
-        <v>390.1781745287759</v>
+        <v>364.1552425586576</v>
       </c>
       <c r="W46" t="n">
-        <v>262.4310401813776</v>
+        <v>236.4081082112593</v>
       </c>
       <c r="X46" t="n">
-        <v>189.587843211956</v>
+        <v>163.5649112418376</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.9619515394357</v>
+        <v>99.93901956931731</v>
       </c>
     </row>
   </sheetData>
@@ -8456,19 +8456,19 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>284.2609795032149</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O8" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485883</v>
+        <v>285.7396743821413</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8532,13 +8532,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>181.378778055004</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
         <v>248.3048328685796</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>242.4445403651401</v>
@@ -8550,7 +8550,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>183.1178003332298</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,19 +8766,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>78.40631651871277</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>145.314067191588</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.367593540682</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321766</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,10 +9015,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>200.8546755198919</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>363.6687460061577</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>268.6382011720935</v>
       </c>
       <c r="N18" t="n">
-        <v>200.8546755198919</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9407,7 +9407,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>584.367593540682</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
         <v>568.5510017355793</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871287</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321763</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>200.8546755198919</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>210.2602344268316</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9641,7 +9641,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>542.9595789155835</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9720,13 +9720,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>59.80203776777151</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40631651871286</v>
+        <v>78.40631651871287</v>
       </c>
       <c r="K27" t="n">
-        <v>199.6952660478591</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9966,13 +9966,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>175.2426333568415</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.43163442218935</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,16 +10191,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321763</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>333.7401798409059</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10434,10 +10434,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>183.1261717482745</v>
       </c>
       <c r="N33" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10668,13 +10668,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>59.80203776777145</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10899,19 +10899,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871287</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321763</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>419.2522092647247</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871287</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321763</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>200.854675519894</v>
+        <v>560.3048470168471</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871287</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,16 +11385,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>200.854675519894</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>269.8920571634262</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>80.43163442218936</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>294.9297453859921</v>
       </c>
       <c r="D11" t="n">
-        <v>285.9110494305202</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6531870004256</v>
       </c>
       <c r="F11" t="n">
-        <v>326.8250030884029</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.79874234268021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>169.1127977000023</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>250.4248056684896</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>170.6644627552751</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>55.93144863897167</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.73513414840789</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.30424840176573</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>67.77117272995204</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.82714630647797</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>72.64954213184637</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.99855633999331</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>148.4769553990538</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>200.1101617732464</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.6301315251172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>294.9297453859923</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>285.9110494305201</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>307.6531870004256</v>
       </c>
       <c r="F14" t="n">
-        <v>326.8250030884029</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>179.683158710748</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.1054154595881</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.1127977000024</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>240.0994365961103</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.04757475335677</v>
+        <v>98.53513930300743</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>67.30424840176593</v>
+        <v>67.30424840176575</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>67.77117272995206</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.82714630647799</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>59.77395546888398</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.99855633999334</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.00703014733521</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>200.1101617732465</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>145.7552637690496</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.374556530518898e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1159847.089989274</v>
+        <v>1159847.089989275</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>306350.6526029217</v>
+      </c>
+      <c r="C2" t="n">
         <v>306350.6526029216</v>
-      </c>
-      <c r="C2" t="n">
-        <v>306350.6526029217</v>
       </c>
       <c r="D2" t="n">
         <v>307049.6241976726</v>
       </c>
       <c r="E2" t="n">
-        <v>267365.2334505312</v>
+        <v>267365.233450531</v>
       </c>
       <c r="F2" t="n">
-        <v>267365.2334505312</v>
+        <v>267365.2334505311</v>
       </c>
       <c r="G2" t="n">
+        <v>307049.6241976729</v>
+      </c>
+      <c r="H2" t="n">
+        <v>307049.6241976729</v>
+      </c>
+      <c r="I2" t="n">
+        <v>307049.6241976729</v>
+      </c>
+      <c r="J2" t="n">
+        <v>307049.6241976725</v>
+      </c>
+      <c r="K2" t="n">
         <v>307049.6241976727</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>307049.6241976728</v>
+      </c>
+      <c r="M2" t="n">
+        <v>307049.6241976728</v>
+      </c>
+      <c r="N2" t="n">
+        <v>307049.6241976729</v>
+      </c>
+      <c r="O2" t="n">
+        <v>307049.6241976729</v>
+      </c>
+      <c r="P2" t="n">
         <v>307049.6241976726</v>
-      </c>
-      <c r="I2" t="n">
-        <v>307049.6241976726</v>
-      </c>
-      <c r="J2" t="n">
-        <v>307049.6241976728</v>
-      </c>
-      <c r="K2" t="n">
-        <v>307049.6241976726</v>
-      </c>
-      <c r="L2" t="n">
-        <v>307049.6241976727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>307049.6241976726</v>
-      </c>
-      <c r="N2" t="n">
-        <v>307049.6241976726</v>
-      </c>
-      <c r="O2" t="n">
-        <v>307049.6241976726</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307049.6241976727</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>42161.62330376123</v>
       </c>
       <c r="E3" t="n">
-        <v>322386.0722302559</v>
+        <v>322386.0722302553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58912.39901545766</v>
+        <v>58912.39901545767</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77501.85774473392</v>
+        <v>77501.85774473404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87005.12716444285</v>
+        <v>87005.12716444279</v>
       </c>
       <c r="M3" t="n">
-        <v>129522.6626819165</v>
+        <v>129522.6626819163</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>23917.25317727187</v>
@@ -26424,19 +26424,19 @@
         <v>362257.2597934403</v>
       </c>
       <c r="E4" t="n">
-        <v>210799.9012866805</v>
+        <v>210799.9012866807</v>
       </c>
       <c r="F4" t="n">
-        <v>210799.9012866805</v>
+        <v>210799.9012866807</v>
       </c>
       <c r="G4" t="n">
-        <v>267240.5926786487</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="H4" t="n">
-        <v>267240.5926786487</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="I4" t="n">
-        <v>267240.5926786487</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="J4" t="n">
         <v>268306.5012814332</v>
@@ -26454,7 +26454,7 @@
         <v>267240.5926786488</v>
       </c>
       <c r="O4" t="n">
-        <v>267240.5926786487</v>
+        <v>267240.5926786488</v>
       </c>
       <c r="P4" t="n">
         <v>267240.5926786488</v>
@@ -26476,31 +26476,31 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>50142.96023133427</v>
+        <v>50142.96023133422</v>
       </c>
       <c r="F5" t="n">
-        <v>50142.96023133425</v>
+        <v>50142.96023133422</v>
       </c>
       <c r="G5" t="n">
-        <v>56333.84332237239</v>
+        <v>56333.84332237236</v>
       </c>
       <c r="H5" t="n">
-        <v>56333.84332237238</v>
+        <v>56333.84332237236</v>
       </c>
       <c r="I5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237233</v>
       </c>
       <c r="J5" t="n">
         <v>64305.78513671568</v>
       </c>
       <c r="K5" t="n">
-        <v>64305.78513671567</v>
+        <v>64305.78513671568</v>
       </c>
       <c r="L5" t="n">
         <v>59005.59711287811</v>
       </c>
       <c r="M5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237235</v>
       </c>
       <c r="N5" t="n">
         <v>56333.84332237236</v>
@@ -26509,7 +26509,7 @@
         <v>56333.84332237236</v>
       </c>
       <c r="P5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237235</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110735.3577690193</v>
+        <v>-110739.7263414864</v>
       </c>
       <c r="C6" t="n">
-        <v>-110735.3577690192</v>
+        <v>-110739.7263414865</v>
       </c>
       <c r="D6" t="n">
         <v>-139249.2063768128</v>
       </c>
       <c r="E6" t="n">
-        <v>-315963.7002977395</v>
+        <v>-316211.7277399089</v>
       </c>
       <c r="F6" t="n">
-        <v>6422.371932516529</v>
+        <v>6174.344490346517</v>
       </c>
       <c r="G6" t="n">
-        <v>-75437.21081880599</v>
+        <v>-75437.21081880596</v>
       </c>
       <c r="H6" t="n">
-        <v>-16524.81180334845</v>
+        <v>-16524.8118033483</v>
       </c>
       <c r="I6" t="n">
-        <v>-16524.81180334807</v>
+        <v>-16524.81180334811</v>
       </c>
       <c r="J6" t="n">
-        <v>-103064.51996521</v>
+        <v>-103064.5199652103</v>
       </c>
       <c r="K6" t="n">
-        <v>-25562.66222047612</v>
+        <v>-25562.66222047613</v>
       </c>
       <c r="L6" t="n">
-        <v>-106541.5434928702</v>
+        <v>-106541.5434928701</v>
       </c>
       <c r="M6" t="n">
-        <v>-146047.474485265</v>
+        <v>-146047.4744852647</v>
       </c>
       <c r="N6" t="n">
-        <v>-16524.81180334848</v>
+        <v>-16524.81180334836</v>
       </c>
       <c r="O6" t="n">
-        <v>-40442.06498062034</v>
+        <v>-40442.06498062017</v>
       </c>
       <c r="P6" t="n">
-        <v>-16524.81180334843</v>
+        <v>-16524.81180334841</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F2" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="G2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="J2" t="n">
         <v>103.5370652409119</v>
@@ -26713,16 +26713,16 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L2" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="N2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="O2" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="P2" t="n">
         <v>156.8251744638506</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376081</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="F3" t="n">
-        <v>121.2952530376081</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="G3" t="n">
-        <v>121.2952530376081</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2952530376081</v>
+        <v>121.2952530376076</v>
       </c>
       <c r="I3" t="n">
         <v>121.2952530376076</v>
       </c>
       <c r="J3" t="n">
-        <v>121.2952530376077</v>
+        <v>121.2952530376076</v>
       </c>
       <c r="K3" t="n">
         <v>121.2952530376076</v>
@@ -26796,40 +26796,40 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>666.2084081274852</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="F4" t="n">
-        <v>666.208408127485</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="G4" t="n">
-        <v>666.2084081274851</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="H4" t="n">
-        <v>666.208408127485</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="I4" t="n">
-        <v>666.2084081274846</v>
+        <v>666.2084081274839</v>
       </c>
       <c r="J4" t="n">
-        <v>871.0080770190397</v>
+        <v>871.0080770190395</v>
       </c>
       <c r="K4" t="n">
-        <v>871.0080770190394</v>
+        <v>871.0080770190395</v>
       </c>
       <c r="L4" t="n">
-        <v>735.2786777216077</v>
+        <v>735.2786777216078</v>
       </c>
       <c r="M4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="N4" t="n">
-        <v>666.2084081274845</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="O4" t="n">
-        <v>666.2084081274846</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="P4" t="n">
-        <v>666.2084081274846</v>
+        <v>666.2084081274844</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>73.64049876932208</v>
+        <v>73.64049876932209</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.89656647158986</v>
+        <v>29.89656647158984</v>
       </c>
       <c r="K2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.7564089555536</v>
+        <v>108.7564089555535</v>
       </c>
       <c r="M2" t="n">
-        <v>18.17219903670716</v>
+        <v>18.17219903670727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>29.89656647158984</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>121.2952530376081</v>
+        <v>121.2952530376075</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.689582056016661e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>530.4790088300534</v>
+        <v>530.4790088300526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>204.799668891555</v>
+        <v>204.7996688915556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.4087392359303</v>
+        <v>461.4087392359293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.64049876932208</v>
+        <v>73.64049876932209</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158986</v>
+        <v>29.89656647158984</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M4" t="n">
-        <v>530.4790088300534</v>
+        <v>530.4790088300526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27859,7 +27859,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.35962750586017</v>
+        <v>163.2231010045045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>177.4907598171621</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27941,7 +27941,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>153.5632765646913</v>
       </c>
       <c r="V9" t="n">
-        <v>165.7476376409751</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28020,19 +28020,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>126.0847428034047</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
@@ -28068,13 +28068,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>109.3894845624002</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.10149986574378</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="L13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="M13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="N13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="O13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="R13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="S13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.18467569452848</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="C14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="D14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="E14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="F14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="G14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="H14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="I14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.10149986574378</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="T14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="U14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="V14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="W14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="X14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="C16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="D16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="E16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="F16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="G16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="H16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="I16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="J16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="K16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="L16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="M16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="N16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="O16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="R16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="S16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="T16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="U16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="V16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="W16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="X16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.18467569452841</v>
+        <v>83.18467569452859</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I17" t="n">
-        <v>152.2900911541165</v>
+        <v>152.2900911541166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.10149986574378</v>
+        <v>59.10149986574393</v>
       </c>
       <c r="S17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H19" t="n">
         <v>155.834217826375</v>
@@ -28743,7 +28743,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J19" t="n">
-        <v>43.99251566105953</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.83638472416903</v>
+        <v>19.83638472416913</v>
       </c>
       <c r="R19" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S19" t="n">
-        <v>111.2260870892642</v>
+        <v>111.2260870892632</v>
       </c>
       <c r="T19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I20" t="n">
-        <v>152.2900911541165</v>
+        <v>152.2900911541166</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.10149986574378</v>
+        <v>59.1014998657439</v>
       </c>
       <c r="S20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H22" t="n">
         <v>155.834217826375</v>
@@ -28980,7 +28980,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J22" t="n">
-        <v>43.99251566105953</v>
+        <v>43.99251566105958</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.83638472416903</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R22" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S22" t="n">
-        <v>111.2260870892642</v>
+        <v>111.2260870892632</v>
       </c>
       <c r="T22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I23" t="n">
         <v>152.2900911541166</v>
@@ -29086,25 +29086,25 @@
         <v>59.1014998657439</v>
       </c>
       <c r="S23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y23" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H25" t="n">
         <v>155.834217826375</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R25" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T25" t="n">
-        <v>111.2260870892646</v>
+        <v>111.2260870892632</v>
       </c>
       <c r="U25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="26">
@@ -29305,10 +29305,10 @@
         <v>103.5370652409119</v>
       </c>
       <c r="M26" t="n">
-        <v>41.72891940804072</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="N26" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940803999</v>
       </c>
       <c r="O26" t="n">
         <v>103.5370652409119</v>
@@ -29539,13 +29539,13 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L29" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940803999</v>
       </c>
       <c r="M29" t="n">
         <v>103.5370652409119</v>
       </c>
       <c r="N29" t="n">
-        <v>41.72891940803999</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="O29" t="n">
         <v>103.5370652409119</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="C32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="D32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="E32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="F32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="G32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="H32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="I32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>55.28590942455105</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="N32" t="n">
-        <v>138.6529754271434</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>134.8373849859508</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>138.6529754271434</v>
+        <v>59.1014998657439</v>
       </c>
       <c r="S32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="U32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="V32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="W32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="X32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
     </row>
     <row r="33">
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="C34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="D34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="E34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="F34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="G34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="H34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="I34" t="n">
         <v>136.1832320345219</v>
       </c>
       <c r="J34" t="n">
-        <v>99.53519972945398</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="K34" t="n">
-        <v>138.6529754271434</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>99.07393014417588</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R34" t="n">
-        <v>138.1917058418638</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="S34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="T34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="U34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="V34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="W34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="X34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6529754271434</v>
+        <v>138.6529754271433</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="E35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="F35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="G35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="I35" t="n">
         <v>152.2900911541166</v>
@@ -30034,25 +30034,25 @@
         <v>59.1014998657439</v>
       </c>
       <c r="S35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y35" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="C37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="H37" t="n">
         <v>155.834217826375</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R37" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S37" t="n">
-        <v>111.2260870892644</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="V37" t="n">
-        <v>156.8251744638505</v>
+        <v>111.2260870892642</v>
       </c>
       <c r="W37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="X37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="Y37" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638506</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I38" t="n">
         <v>152.2900911541166</v>
@@ -30271,25 +30271,25 @@
         <v>59.1014998657439</v>
       </c>
       <c r="S38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,7 +30393,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H40" t="n">
         <v>155.834217826375</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R40" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V40" t="n">
-        <v>156.8251744638505</v>
+        <v>111.2260870892634</v>
       </c>
       <c r="W40" t="n">
-        <v>111.2260870892644</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I41" t="n">
         <v>152.2900911541166</v>
@@ -30508,25 +30508,25 @@
         <v>59.1014998657439</v>
       </c>
       <c r="S41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>111.2260870892646</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H43" t="n">
         <v>155.834217826375</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.8363847241691</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R43" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U43" t="n">
-        <v>156.8251744638505</v>
+        <v>111.2260870892634</v>
       </c>
       <c r="V43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.8251744638505</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J46" t="n">
-        <v>18.22981301064242</v>
+        <v>43.99251566105958</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R46" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S46" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892642</v>
       </c>
       <c r="T46" t="n">
         <v>156.8251744638506</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4876191076888764</v>
+        <v>0.4876191076888742</v>
       </c>
       <c r="H11" t="n">
-        <v>4.993829186618706</v>
+        <v>4.993829186618684</v>
       </c>
       <c r="I11" t="n">
-        <v>18.79893564917543</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J11" t="n">
-        <v>41.38606224120881</v>
+        <v>41.38606224120862</v>
       </c>
       <c r="K11" t="n">
-        <v>62.02697906967896</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L11" t="n">
-        <v>76.94995233661243</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M11" t="n">
-        <v>85.62164864297448</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N11" t="n">
-        <v>87.0070964326955</v>
+        <v>87.00709643269511</v>
       </c>
       <c r="O11" t="n">
-        <v>82.15833393061423</v>
+        <v>82.15833393061386</v>
       </c>
       <c r="P11" t="n">
-        <v>70.12023720954508</v>
+        <v>70.12023720954477</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.65737791543719</v>
+        <v>52.65737791543695</v>
       </c>
       <c r="R11" t="n">
-        <v>30.63040377336141</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S11" t="n">
-        <v>11.11162041646028</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T11" t="n">
-        <v>2.134552643908057</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0390095286151101</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2608992235148552</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H12" t="n">
-        <v>2.519737237630312</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I12" t="n">
-        <v>8.982714493822865</v>
+        <v>8.982714493822824</v>
       </c>
       <c r="J12" t="n">
-        <v>24.64925514795393</v>
+        <v>24.64925514795382</v>
       </c>
       <c r="K12" t="n">
-        <v>42.12950312344922</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L12" t="n">
-        <v>56.64831605308292</v>
+        <v>56.64831605308266</v>
       </c>
       <c r="M12" t="n">
-        <v>66.1059129054964</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N12" t="n">
-        <v>67.85553971582191</v>
+        <v>67.85553971582161</v>
       </c>
       <c r="O12" t="n">
-        <v>62.0745621842559</v>
+        <v>62.07456218425563</v>
       </c>
       <c r="P12" t="n">
-        <v>49.82030874293756</v>
+        <v>49.82030874293734</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.30355702270327</v>
+        <v>33.30355702270312</v>
       </c>
       <c r="R12" t="n">
-        <v>16.19863775472058</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S12" t="n">
-        <v>4.846088647304433</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051606957939262</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01716442259966153</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2187291448219162</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944700942143947</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I13" t="n">
-        <v>6.577781918826355</v>
+        <v>6.577781918826325</v>
       </c>
       <c r="J13" t="n">
-        <v>15.46415053890948</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K13" t="n">
-        <v>25.41234973476444</v>
+        <v>25.41234973476433</v>
       </c>
       <c r="L13" t="n">
-        <v>32.51905849470562</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M13" t="n">
-        <v>34.28678767422092</v>
+        <v>34.28678767422076</v>
       </c>
       <c r="N13" t="n">
-        <v>33.47152449806653</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O13" t="n">
-        <v>30.91637039719231</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P13" t="n">
-        <v>26.4542958428252</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.31558320867882</v>
+        <v>18.31558320867874</v>
       </c>
       <c r="R13" t="n">
-        <v>9.834857729901794</v>
+        <v>9.834857729901749</v>
       </c>
       <c r="S13" t="n">
-        <v>3.811852460214666</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9345699824209145</v>
+        <v>0.9345699824209102</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01193068062664999</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4876191076888764</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H14" t="n">
-        <v>4.993829186618706</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I14" t="n">
-        <v>18.79893564917543</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J14" t="n">
-        <v>41.38606224120881</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K14" t="n">
-        <v>62.02697906967896</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L14" t="n">
-        <v>76.94995233661243</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M14" t="n">
-        <v>85.62164864297448</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N14" t="n">
-        <v>87.0070964326955</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O14" t="n">
-        <v>82.15833393061423</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P14" t="n">
-        <v>70.12023720954508</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.65737791543719</v>
+        <v>52.65737791543692</v>
       </c>
       <c r="R14" t="n">
-        <v>30.63040377336141</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S14" t="n">
-        <v>11.11162041646028</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T14" t="n">
-        <v>2.134552643908057</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0390095286151101</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2608992235148552</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H15" t="n">
-        <v>2.519737237630312</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I15" t="n">
-        <v>8.982714493822865</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J15" t="n">
-        <v>24.64925514795393</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K15" t="n">
-        <v>42.12950312344922</v>
+        <v>42.12950312344901</v>
       </c>
       <c r="L15" t="n">
-        <v>56.64831605308292</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M15" t="n">
-        <v>66.1059129054964</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N15" t="n">
-        <v>67.85553971582191</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O15" t="n">
-        <v>62.0745621842559</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P15" t="n">
-        <v>49.82030874293756</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.30355702270327</v>
+        <v>33.3035570227031</v>
       </c>
       <c r="R15" t="n">
-        <v>16.19863775472058</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S15" t="n">
-        <v>4.846088647304433</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T15" t="n">
-        <v>1.051606957939262</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01716442259966153</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2187291448219162</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H16" t="n">
-        <v>1.944700942143947</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I16" t="n">
-        <v>6.577781918826355</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J16" t="n">
-        <v>15.46415053890948</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K16" t="n">
-        <v>25.41234973476444</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L16" t="n">
-        <v>32.51905849470562</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M16" t="n">
-        <v>34.28678767422092</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N16" t="n">
-        <v>33.47152449806653</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O16" t="n">
-        <v>30.91637039719231</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P16" t="n">
-        <v>26.4542958428252</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.31558320867882</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R16" t="n">
-        <v>9.834857729901794</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S16" t="n">
-        <v>3.811852460214666</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9345699824209145</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01193068062664999</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4876191076888763</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H17" t="n">
-        <v>4.993829186618706</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I17" t="n">
-        <v>18.79893564917542</v>
+        <v>18.79893564917533</v>
       </c>
       <c r="J17" t="n">
-        <v>41.3860622412088</v>
+        <v>41.3860622412086</v>
       </c>
       <c r="K17" t="n">
-        <v>62.02697906967895</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L17" t="n">
-        <v>76.94995233661241</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M17" t="n">
-        <v>85.62164864297446</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N17" t="n">
-        <v>87.00709643269549</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O17" t="n">
-        <v>82.15833393061422</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P17" t="n">
-        <v>70.12023720954508</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.65737791543718</v>
+        <v>52.65737791543692</v>
       </c>
       <c r="R17" t="n">
-        <v>30.6304037733614</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S17" t="n">
-        <v>11.11162041646028</v>
+        <v>11.11162041646022</v>
       </c>
       <c r="T17" t="n">
-        <v>2.134552643908057</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0390095286151101</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2608992235148551</v>
+        <v>0.2608992235148538</v>
       </c>
       <c r="H18" t="n">
-        <v>2.519737237630312</v>
+        <v>2.519737237630299</v>
       </c>
       <c r="I18" t="n">
-        <v>8.982714493822863</v>
+        <v>8.982714493822819</v>
       </c>
       <c r="J18" t="n">
-        <v>24.64925514795393</v>
+        <v>24.6492551479538</v>
       </c>
       <c r="K18" t="n">
-        <v>42.12950312344922</v>
+        <v>42.12950312344901</v>
       </c>
       <c r="L18" t="n">
-        <v>56.64831605308291</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M18" t="n">
-        <v>66.1059129054964</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N18" t="n">
-        <v>67.85553971582191</v>
+        <v>67.85553971582156</v>
       </c>
       <c r="O18" t="n">
-        <v>62.0745621842559</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P18" t="n">
-        <v>49.82030874293756</v>
+        <v>49.82030874293731</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.30355702270327</v>
+        <v>33.3035570227031</v>
       </c>
       <c r="R18" t="n">
-        <v>16.19863775472057</v>
+        <v>16.19863775472049</v>
       </c>
       <c r="S18" t="n">
-        <v>4.846088647304433</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T18" t="n">
-        <v>1.051606957939262</v>
+        <v>1.051606957939257</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01716442259966153</v>
+        <v>0.01716442259966144</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2187291448219162</v>
+        <v>0.2187291448219151</v>
       </c>
       <c r="H19" t="n">
-        <v>1.944700942143947</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I19" t="n">
-        <v>6.577781918826354</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J19" t="n">
-        <v>15.46415053890947</v>
+        <v>15.4641505389094</v>
       </c>
       <c r="K19" t="n">
-        <v>25.41234973476444</v>
+        <v>25.41234973476431</v>
       </c>
       <c r="L19" t="n">
-        <v>32.51905849470562</v>
+        <v>32.51905849470545</v>
       </c>
       <c r="M19" t="n">
-        <v>34.28678767422091</v>
+        <v>34.28678767422074</v>
       </c>
       <c r="N19" t="n">
-        <v>33.47152449806652</v>
+        <v>33.47152449806636</v>
       </c>
       <c r="O19" t="n">
-        <v>30.91637039719231</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P19" t="n">
-        <v>26.4542958428252</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.31558320867882</v>
+        <v>18.31558320867873</v>
       </c>
       <c r="R19" t="n">
-        <v>9.834857729901792</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S19" t="n">
-        <v>3.811852460214665</v>
+        <v>3.811852460214646</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9345699824209144</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01193068062664999</v>
+        <v>0.01193068062664993</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4876191076888763</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H20" t="n">
-        <v>4.993829186618706</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I20" t="n">
-        <v>18.79893564917542</v>
+        <v>18.79893564917535</v>
       </c>
       <c r="J20" t="n">
-        <v>41.3860622412088</v>
+        <v>41.38606224120864</v>
       </c>
       <c r="K20" t="n">
-        <v>62.02697906967895</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L20" t="n">
-        <v>76.94995233661241</v>
+        <v>76.94995233661211</v>
       </c>
       <c r="M20" t="n">
-        <v>85.62164864297446</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N20" t="n">
-        <v>87.00709643269549</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O20" t="n">
-        <v>82.15833393061422</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P20" t="n">
-        <v>70.12023720954508</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.65737791543718</v>
+        <v>52.65737791543697</v>
       </c>
       <c r="R20" t="n">
-        <v>30.6304037733614</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S20" t="n">
-        <v>11.11162041646028</v>
+        <v>11.11162041646024</v>
       </c>
       <c r="T20" t="n">
-        <v>2.134552643908057</v>
+        <v>2.134552643908049</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0390095286151101</v>
+        <v>0.03900952861510994</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2608992235148551</v>
+        <v>0.2608992235148541</v>
       </c>
       <c r="H21" t="n">
-        <v>2.519737237630312</v>
+        <v>2.519737237630302</v>
       </c>
       <c r="I21" t="n">
-        <v>8.982714493822863</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J21" t="n">
-        <v>24.64925514795393</v>
+        <v>24.64925514795383</v>
       </c>
       <c r="K21" t="n">
-        <v>42.12950312344922</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L21" t="n">
-        <v>56.64831605308291</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M21" t="n">
-        <v>66.1059129054964</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N21" t="n">
-        <v>67.85553971582191</v>
+        <v>67.85553971582164</v>
       </c>
       <c r="O21" t="n">
-        <v>62.0745621842559</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P21" t="n">
-        <v>49.82030874293756</v>
+        <v>49.82030874293736</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.30355702270327</v>
+        <v>33.30355702270313</v>
       </c>
       <c r="R21" t="n">
-        <v>16.19863775472057</v>
+        <v>16.19863775472051</v>
       </c>
       <c r="S21" t="n">
-        <v>4.846088647304433</v>
+        <v>4.846088647304414</v>
       </c>
       <c r="T21" t="n">
-        <v>1.051606957939262</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01716442259966153</v>
+        <v>0.01716442259966146</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2187291448219162</v>
+        <v>0.2187291448219153</v>
       </c>
       <c r="H22" t="n">
-        <v>1.944700942143947</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I22" t="n">
-        <v>6.577781918826354</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J22" t="n">
-        <v>15.46415053890947</v>
+        <v>15.46415053890941</v>
       </c>
       <c r="K22" t="n">
-        <v>25.41234973476444</v>
+        <v>25.41234973476434</v>
       </c>
       <c r="L22" t="n">
-        <v>32.51905849470562</v>
+        <v>32.51905849470549</v>
       </c>
       <c r="M22" t="n">
-        <v>34.28678767422091</v>
+        <v>34.28678767422078</v>
       </c>
       <c r="N22" t="n">
-        <v>33.47152449806652</v>
+        <v>33.47152449806639</v>
       </c>
       <c r="O22" t="n">
-        <v>30.91637039719231</v>
+        <v>30.91637039719219</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4542958428252</v>
+        <v>26.45429584282509</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.31558320867882</v>
+        <v>18.31558320867875</v>
       </c>
       <c r="R22" t="n">
-        <v>9.834857729901792</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S22" t="n">
-        <v>3.811852460214665</v>
+        <v>3.81185246021465</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9345699824209144</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01193068062664999</v>
+        <v>0.01193068062664994</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H23" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I23" t="n">
         <v>18.79893564917535</v>
@@ -32710,28 +32710,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K23" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L23" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M23" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N23" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O23" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P23" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q23" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R23" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S23" t="n">
         <v>11.11162041646024</v>
@@ -32783,25 +32783,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I24" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J24" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K24" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L24" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M24" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N24" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O24" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P24" t="n">
         <v>49.82030874293736</v>
@@ -32859,10 +32859,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H25" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I25" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J25" t="n">
         <v>15.46415053890941</v>
@@ -32889,13 +32889,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R25" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S25" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U25" t="n">
         <v>0.01193068062664994</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4876191076888747</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H26" t="n">
-        <v>4.993829186618689</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I26" t="n">
-        <v>18.79893564917536</v>
+        <v>18.79893564917535</v>
       </c>
       <c r="J26" t="n">
-        <v>41.38606224120867</v>
+        <v>41.38606224120864</v>
       </c>
       <c r="K26" t="n">
-        <v>62.02697906967875</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L26" t="n">
-        <v>76.94995233661217</v>
+        <v>76.94995233661211</v>
       </c>
       <c r="M26" t="n">
-        <v>85.62164864297418</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N26" t="n">
-        <v>87.00709643269521</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O26" t="n">
-        <v>82.15833393061395</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P26" t="n">
-        <v>70.12023720954485</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.65737791543701</v>
+        <v>52.65737791543697</v>
       </c>
       <c r="R26" t="n">
-        <v>30.63040377336131</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S26" t="n">
         <v>11.11162041646024</v>
       </c>
       <c r="T26" t="n">
-        <v>2.13455264390805</v>
+        <v>2.134552643908049</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03900952861510997</v>
+        <v>0.03900952861510994</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2608992235148543</v>
+        <v>0.2608992235148541</v>
       </c>
       <c r="H27" t="n">
-        <v>2.519737237630304</v>
+        <v>2.519737237630302</v>
       </c>
       <c r="I27" t="n">
-        <v>8.982714493822835</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J27" t="n">
-        <v>24.64925514795384</v>
+        <v>24.64925514795383</v>
       </c>
       <c r="K27" t="n">
-        <v>42.12950312344908</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L27" t="n">
-        <v>56.64831605308272</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M27" t="n">
-        <v>66.10591290549618</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N27" t="n">
-        <v>67.85553971582168</v>
+        <v>67.85553971582164</v>
       </c>
       <c r="O27" t="n">
-        <v>62.0745621842557</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P27" t="n">
-        <v>49.82030874293739</v>
+        <v>49.82030874293736</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.30355702270315</v>
+        <v>33.30355702270313</v>
       </c>
       <c r="R27" t="n">
-        <v>16.19863775472052</v>
+        <v>16.19863775472051</v>
       </c>
       <c r="S27" t="n">
-        <v>4.846088647304417</v>
+        <v>4.846088647304414</v>
       </c>
       <c r="T27" t="n">
-        <v>1.051606957939259</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01716442259966147</v>
+        <v>0.01716442259966146</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2187291448219155</v>
+        <v>0.2187291448219153</v>
       </c>
       <c r="H28" t="n">
-        <v>1.944700942143941</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I28" t="n">
-        <v>6.577781918826332</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J28" t="n">
-        <v>15.46415053890942</v>
+        <v>15.46415053890941</v>
       </c>
       <c r="K28" t="n">
-        <v>25.41234973476435</v>
+        <v>25.41234973476434</v>
       </c>
       <c r="L28" t="n">
-        <v>32.51905849470551</v>
+        <v>32.51905849470549</v>
       </c>
       <c r="M28" t="n">
-        <v>34.2867876742208</v>
+        <v>34.28678767422078</v>
       </c>
       <c r="N28" t="n">
-        <v>33.47152449806642</v>
+        <v>33.47152449806639</v>
       </c>
       <c r="O28" t="n">
-        <v>30.91637039719221</v>
+        <v>30.91637039719219</v>
       </c>
       <c r="P28" t="n">
-        <v>26.45429584282511</v>
+        <v>26.45429584282509</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.31558320867876</v>
+        <v>18.31558320867875</v>
       </c>
       <c r="R28" t="n">
-        <v>9.83485772990176</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S28" t="n">
-        <v>3.811852460214653</v>
+        <v>3.81185246021465</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9345699824209113</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01193068062664995</v>
+        <v>0.01193068062664994</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H29" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I29" t="n">
         <v>18.79893564917535</v>
@@ -33184,28 +33184,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K29" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L29" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M29" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N29" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O29" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P29" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q29" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R29" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S29" t="n">
         <v>11.11162041646024</v>
@@ -33257,25 +33257,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I30" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J30" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K30" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L30" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M30" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N30" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O30" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P30" t="n">
         <v>49.82030874293736</v>
@@ -33333,10 +33333,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H31" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I31" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J31" t="n">
         <v>15.46415053890941</v>
@@ -33363,13 +33363,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R31" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S31" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U31" t="n">
         <v>0.01193068062664994</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H32" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I32" t="n">
         <v>18.79893564917535</v>
@@ -33421,28 +33421,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K32" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L32" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M32" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N32" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O32" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P32" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q32" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R32" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S32" t="n">
         <v>11.11162041646024</v>
@@ -33494,25 +33494,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I33" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J33" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K33" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L33" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M33" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N33" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O33" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P33" t="n">
         <v>49.82030874293736</v>
@@ -33570,10 +33570,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H34" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I34" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J34" t="n">
         <v>15.46415053890941</v>
@@ -33600,13 +33600,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R34" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S34" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U34" t="n">
         <v>0.01193068062664994</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H35" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I35" t="n">
         <v>18.79893564917535</v>
@@ -33658,28 +33658,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K35" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L35" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M35" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N35" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O35" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P35" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q35" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R35" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S35" t="n">
         <v>11.11162041646024</v>
@@ -33731,25 +33731,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I36" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J36" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K36" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L36" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M36" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N36" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O36" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P36" t="n">
         <v>49.82030874293736</v>
@@ -33807,10 +33807,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H37" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I37" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J37" t="n">
         <v>15.46415053890941</v>
@@ -33837,13 +33837,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R37" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S37" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U37" t="n">
         <v>0.01193068062664994</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H38" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I38" t="n">
         <v>18.79893564917535</v>
@@ -33895,28 +33895,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K38" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L38" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M38" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N38" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O38" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P38" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q38" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R38" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S38" t="n">
         <v>11.11162041646024</v>
@@ -33968,25 +33968,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I39" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J39" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K39" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L39" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M39" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N39" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O39" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P39" t="n">
         <v>49.82030874293736</v>
@@ -34044,10 +34044,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H40" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I40" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J40" t="n">
         <v>15.46415053890941</v>
@@ -34074,13 +34074,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R40" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S40" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U40" t="n">
         <v>0.01193068062664994</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H41" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I41" t="n">
         <v>18.79893564917535</v>
@@ -34132,28 +34132,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K41" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L41" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M41" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N41" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O41" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P41" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q41" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R41" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S41" t="n">
         <v>11.11162041646024</v>
@@ -34205,25 +34205,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I42" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J42" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K42" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L42" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M42" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N42" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O42" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P42" t="n">
         <v>49.82030874293736</v>
@@ -34281,10 +34281,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H43" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I43" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J43" t="n">
         <v>15.46415053890941</v>
@@ -34311,13 +34311,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R43" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S43" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U43" t="n">
         <v>0.01193068062664994</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4876191076888745</v>
+        <v>0.4876191076888744</v>
       </c>
       <c r="H44" t="n">
-        <v>4.993829186618687</v>
+        <v>4.993829186618686</v>
       </c>
       <c r="I44" t="n">
         <v>18.79893564917535</v>
@@ -34369,28 +34369,28 @@
         <v>41.38606224120864</v>
       </c>
       <c r="K44" t="n">
-        <v>62.02697906967871</v>
+        <v>62.0269790696787</v>
       </c>
       <c r="L44" t="n">
         <v>76.94995233661211</v>
       </c>
       <c r="M44" t="n">
-        <v>85.62164864297414</v>
+        <v>85.62164864297412</v>
       </c>
       <c r="N44" t="n">
-        <v>87.00709643269516</v>
+        <v>87.00709643269515</v>
       </c>
       <c r="O44" t="n">
-        <v>82.15833393061391</v>
+        <v>82.15833393061389</v>
       </c>
       <c r="P44" t="n">
-        <v>70.12023720954481</v>
+        <v>70.1202372095448</v>
       </c>
       <c r="Q44" t="n">
         <v>52.65737791543697</v>
       </c>
       <c r="R44" t="n">
-        <v>30.63040377336129</v>
+        <v>30.63040377336128</v>
       </c>
       <c r="S44" t="n">
         <v>11.11162041646024</v>
@@ -34442,25 +34442,25 @@
         <v>2.519737237630302</v>
       </c>
       <c r="I45" t="n">
-        <v>8.982714493822829</v>
+        <v>8.982714493822828</v>
       </c>
       <c r="J45" t="n">
         <v>24.64925514795383</v>
       </c>
       <c r="K45" t="n">
-        <v>42.12950312344906</v>
+        <v>42.12950312344905</v>
       </c>
       <c r="L45" t="n">
-        <v>56.6483160530827</v>
+        <v>56.64831605308269</v>
       </c>
       <c r="M45" t="n">
-        <v>66.10591290549614</v>
+        <v>66.10591290549613</v>
       </c>
       <c r="N45" t="n">
         <v>67.85553971582164</v>
       </c>
       <c r="O45" t="n">
-        <v>62.07456218425566</v>
+        <v>62.07456218425565</v>
       </c>
       <c r="P45" t="n">
         <v>49.82030874293736</v>
@@ -34518,10 +34518,10 @@
         <v>0.2187291448219153</v>
       </c>
       <c r="H46" t="n">
-        <v>1.94470094214394</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I46" t="n">
-        <v>6.577781918826329</v>
+        <v>6.577781918826328</v>
       </c>
       <c r="J46" t="n">
         <v>15.46415053890941</v>
@@ -34548,13 +34548,13 @@
         <v>18.31558320867875</v>
       </c>
       <c r="R46" t="n">
-        <v>9.834857729901755</v>
+        <v>9.834857729901753</v>
       </c>
       <c r="S46" t="n">
         <v>3.81185246021465</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9345699824209107</v>
+        <v>0.9345699824209106</v>
       </c>
       <c r="U46" t="n">
         <v>0.01193068062664994</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974318</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35252,13 +35252,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>135.7293992974318</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>114.1118645369721</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K11" t="n">
-        <v>304.5930114381464</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L11" t="n">
-        <v>428.3493190890833</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M11" t="n">
-        <v>482.8329276864977</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N11" t="n">
-        <v>469.1599839960447</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O11" t="n">
-        <v>390.2437727920627</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P11" t="n">
-        <v>300.581748781316</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.0434927503231</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K12" t="n">
-        <v>273.9381420731348</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L12" t="n">
-        <v>89.38694967352312</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M12" t="n">
-        <v>556.0385932188565</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N12" t="n">
-        <v>584.2854852947331</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O12" t="n">
-        <v>458.2361286328932</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9677019507126</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6688396344146</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.19216003346895</v>
+        <v>39.19216003346901</v>
       </c>
       <c r="K13" t="n">
         <v>142.5406494137812</v>
@@ -35574,10 +35574,10 @@
         <v>217.3270467147487</v>
       </c>
       <c r="M13" t="n">
-        <v>236.6568230935997</v>
+        <v>236.6568230935996</v>
       </c>
       <c r="N13" t="n">
-        <v>236.2747272123934</v>
+        <v>236.2747272123933</v>
       </c>
       <c r="O13" t="n">
         <v>213.5592748752457</v>
@@ -35586,7 +35586,7 @@
         <v>173.2435005556747</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.34829097035944</v>
+        <v>63.34829097035949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.1118645369721</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K14" t="n">
-        <v>304.5930114381464</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L14" t="n">
-        <v>428.3493190890833</v>
+        <v>428.3493190890829</v>
       </c>
       <c r="M14" t="n">
-        <v>482.8329276864974</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N14" t="n">
-        <v>469.1599839960447</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O14" t="n">
-        <v>390.2437727920627</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P14" t="n">
-        <v>300.581748781316</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.0434927503231</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>85.51202942381872</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K15" t="n">
-        <v>273.9381420731348</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>426.1653313764321</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M15" t="n">
-        <v>556.0385932188565</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N15" t="n">
-        <v>161.9950741680055</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O15" t="n">
-        <v>458.2361286328932</v>
+        <v>309.8838595793022</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9677019507126</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.6688396344146</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.19216003346888</v>
+        <v>39.19216003346899</v>
       </c>
       <c r="K16" t="n">
         <v>142.5406494137812</v>
@@ -35811,19 +35811,19 @@
         <v>217.3270467147487</v>
       </c>
       <c r="M16" t="n">
-        <v>236.6568230935996</v>
+        <v>236.6568230935995</v>
       </c>
       <c r="N16" t="n">
         <v>236.2747272123933</v>
       </c>
       <c r="O16" t="n">
-        <v>213.5592748752456</v>
+        <v>213.5592748752457</v>
       </c>
       <c r="P16" t="n">
         <v>173.2435005556746</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.34829097035937</v>
+        <v>63.34829097035947</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>114.1118645369721</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K17" t="n">
-        <v>304.5930114381464</v>
+        <v>304.593011438146</v>
       </c>
       <c r="L17" t="n">
-        <v>428.3493190890833</v>
+        <v>428.349319089083</v>
       </c>
       <c r="M17" t="n">
-        <v>482.8329276864977</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N17" t="n">
-        <v>469.1599839960447</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O17" t="n">
-        <v>390.2437727920627</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P17" t="n">
-        <v>300.581748781316</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.043492750323</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>85.51202942381872</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>273.9381420731348</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L18" t="n">
-        <v>426.1653313764321</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M18" t="n">
-        <v>556.0385932188565</v>
+        <v>219.2602115159497</v>
       </c>
       <c r="N18" t="n">
-        <v>161.9950741680055</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O18" t="n">
-        <v>458.2361286328932</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9677019507126</v>
+        <v>354.9677019507123</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.6688396344146</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.35597371925273</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L19" t="n">
-        <v>134.1423710202203</v>
+        <v>134.1423710202201</v>
       </c>
       <c r="M19" t="n">
-        <v>153.4721473990711</v>
+        <v>153.472147399071</v>
       </c>
       <c r="N19" t="n">
-        <v>153.0900515178649</v>
+        <v>153.0900515178647</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3745991807172</v>
+        <v>130.3745991807171</v>
       </c>
       <c r="P19" t="n">
-        <v>90.05882486114621</v>
+        <v>90.05882486114606</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>114.1118645369721</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K20" t="n">
-        <v>304.5930114381464</v>
+        <v>304.5930114381462</v>
       </c>
       <c r="L20" t="n">
-        <v>428.3493190890833</v>
+        <v>428.3493190890831</v>
       </c>
       <c r="M20" t="n">
-        <v>482.8329276864974</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N20" t="n">
-        <v>469.1599839960447</v>
+        <v>469.1599839960444</v>
       </c>
       <c r="O20" t="n">
-        <v>390.2437727920627</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P20" t="n">
-        <v>300.581748781316</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q20" t="n">
-        <v>148.043492750323</v>
+        <v>148.0434927503228</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>85.51202942381872</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>273.9381420731348</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>426.1653313764321</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M21" t="n">
-        <v>556.0385932188565</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N21" t="n">
-        <v>161.9950741680055</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O21" t="n">
-        <v>458.2361286328932</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P21" t="n">
-        <v>354.9677019507126</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q21" t="n">
-        <v>192.6688396344146</v>
+        <v>129.8286000046422</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.35597371925273</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L22" t="n">
-        <v>134.1423710202203</v>
+        <v>134.1423710202201</v>
       </c>
       <c r="M22" t="n">
-        <v>153.4721473990711</v>
+        <v>153.472147399071</v>
       </c>
       <c r="N22" t="n">
-        <v>153.0900515178649</v>
+        <v>153.0900515178647</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3745991807172</v>
+        <v>130.3745991807171</v>
       </c>
       <c r="P22" t="n">
-        <v>90.05882486114621</v>
+        <v>90.05882486114609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>304.5930114381462</v>
       </c>
       <c r="L23" t="n">
-        <v>428.3493190890831</v>
+        <v>428.349319089081</v>
       </c>
       <c r="M23" t="n">
         <v>482.8329276864973</v>
@@ -36370,10 +36370,10 @@
         <v>469.1599839960444</v>
       </c>
       <c r="O23" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P23" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q23" t="n">
         <v>148.0434927503228</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>85.51202942381863</v>
+        <v>85.51202942381862</v>
       </c>
       <c r="K24" t="n">
         <v>273.9381420731346</v>
       </c>
       <c r="L24" t="n">
-        <v>426.1653313764318</v>
+        <v>3.874920249706412</v>
       </c>
       <c r="M24" t="n">
         <v>556.0385932188561</v>
       </c>
       <c r="N24" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O24" t="n">
         <v>458.2361286328929</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L25" t="n">
         <v>134.1423710202201</v>
@@ -36595,16 +36595,16 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K26" t="n">
-        <v>408.1300766790581</v>
+        <v>408.130076679058</v>
       </c>
       <c r="L26" t="n">
-        <v>531.8863843299951</v>
+        <v>531.8863843299949</v>
       </c>
       <c r="M26" t="n">
-        <v>524.5618470945381</v>
+        <v>586.3699929274093</v>
       </c>
       <c r="N26" t="n">
-        <v>572.6970492369563</v>
+        <v>510.8889034040844</v>
       </c>
       <c r="O26" t="n">
         <v>493.7808380329743</v>
@@ -36616,7 +36616,7 @@
         <v>251.5805579912347</v>
       </c>
       <c r="R26" t="n">
-        <v>44.43556537516803</v>
+        <v>44.43556537516801</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>129.8286000046415</v>
+        <v>273.9381420731346</v>
       </c>
       <c r="L27" t="n">
-        <v>426.1653313764319</v>
+        <v>426.1653313764318</v>
       </c>
       <c r="M27" t="n">
-        <v>556.0385932188562</v>
+        <v>556.0385932188561</v>
       </c>
       <c r="N27" t="n">
-        <v>584.2854852947329</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O27" t="n">
-        <v>458.2361286328929</v>
+        <v>121.4577469299861</v>
       </c>
       <c r="P27" t="n">
         <v>354.9677019507124</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>192.6688396344145</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.54454957985232</v>
+        <v>59.54454957985233</v>
       </c>
       <c r="K28" t="n">
         <v>162.8930389601645</v>
@@ -36835,13 +36835,13 @@
         <v>408.130076679058</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8863843299949</v>
+        <v>470.078238497123</v>
       </c>
       <c r="M29" t="n">
         <v>586.3699929274093</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8889034040844</v>
+        <v>572.6970492369562</v>
       </c>
       <c r="O29" t="n">
         <v>493.7808380329743</v>
@@ -36853,7 +36853,7 @@
         <v>251.5805579912347</v>
       </c>
       <c r="R29" t="n">
-        <v>44.43556537516802</v>
+        <v>44.43556537516801</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>85.51202942381863</v>
+        <v>85.51202942381862</v>
       </c>
       <c r="K30" t="n">
-        <v>273.9381420731346</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>426.1653313764318</v>
+        <v>277.8130623228408</v>
       </c>
       <c r="M30" t="n">
         <v>556.0385932188561</v>
       </c>
       <c r="N30" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O30" t="n">
         <v>458.2361286328929</v>
@@ -36990,7 +36990,7 @@
         <v>59.54454957985233</v>
       </c>
       <c r="K31" t="n">
-        <v>162.8930389601646</v>
+        <v>162.8930389601645</v>
       </c>
       <c r="L31" t="n">
         <v>237.6794362611321</v>
@@ -37072,25 +37072,25 @@
         <v>304.5930114381462</v>
       </c>
       <c r="L32" t="n">
-        <v>483.6352285136341</v>
+        <v>428.3493190890831</v>
       </c>
       <c r="M32" t="n">
-        <v>482.8329276864973</v>
+        <v>621.4859031136407</v>
       </c>
       <c r="N32" t="n">
-        <v>607.8129594231877</v>
+        <v>469.1599839960444</v>
       </c>
       <c r="O32" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P32" t="n">
-        <v>300.5817487813158</v>
+        <v>435.4191337672665</v>
       </c>
       <c r="Q32" t="n">
         <v>148.0434927503228</v>
       </c>
       <c r="R32" t="n">
-        <v>79.55147556139949</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>85.51202942381863</v>
+        <v>85.51202942381862</v>
       </c>
       <c r="K33" t="n">
         <v>273.9381420731346</v>
@@ -37154,10 +37154,10 @@
         <v>426.1653313764318</v>
       </c>
       <c r="M33" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921307</v>
       </c>
       <c r="N33" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O33" t="n">
         <v>458.2361286328929</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>55.5426840683944</v>
+        <v>94.66045976608372</v>
       </c>
       <c r="K34" t="n">
-        <v>198.008949146396</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L34" t="n">
-        <v>134.1423710202201</v>
+        <v>233.216301164396</v>
       </c>
       <c r="M34" t="n">
         <v>153.472147399071</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.4612695852794921</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37318,10 +37318,10 @@
         <v>469.1599839960444</v>
       </c>
       <c r="O35" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P35" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q35" t="n">
         <v>148.0434927503228</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>85.51202942381863</v>
+        <v>85.51202942381862</v>
       </c>
       <c r="K36" t="n">
         <v>273.9381420731346</v>
       </c>
       <c r="L36" t="n">
-        <v>426.1653313764318</v>
+        <v>3.874920249706355</v>
       </c>
       <c r="M36" t="n">
         <v>556.0385932188561</v>
       </c>
       <c r="N36" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O36" t="n">
         <v>458.2361286328929</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L37" t="n">
         <v>134.1423710202201</v>
@@ -37555,10 +37555,10 @@
         <v>469.1599839960444</v>
       </c>
       <c r="O38" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P38" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q38" t="n">
         <v>148.0434927503228</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.51202942381863</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>273.9381420731346</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>426.1653313764318</v>
+        <v>363.3250917466596</v>
       </c>
       <c r="M39" t="n">
         <v>556.0385932188561</v>
       </c>
       <c r="N39" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O39" t="n">
         <v>458.2361286328929</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L40" t="n">
         <v>134.1423710202201</v>
@@ -37792,10 +37792,10 @@
         <v>469.1599839960444</v>
       </c>
       <c r="O41" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P41" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q41" t="n">
         <v>148.0434927503228</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.51202942381863</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>273.9381420731346</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>426.1653313764318</v>
@@ -37868,7 +37868,7 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N42" t="n">
-        <v>161.9950741680073</v>
+        <v>521.4452456649605</v>
       </c>
       <c r="O42" t="n">
         <v>458.2361286328929</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L43" t="n">
         <v>134.1423710202201</v>
@@ -38029,10 +38029,10 @@
         <v>469.1599839960444</v>
       </c>
       <c r="O44" t="n">
-        <v>390.2437727920624</v>
+        <v>390.2437727920623</v>
       </c>
       <c r="P44" t="n">
-        <v>300.5817487813158</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q44" t="n">
         <v>148.0434927503228</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.51202942381863</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>273.9381420731346</v>
@@ -38105,16 +38105,16 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N45" t="n">
-        <v>161.9950741680073</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O45" t="n">
         <v>458.2361286328929</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9677019507124</v>
+        <v>210.8581598822202</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.6688396344145</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.35597371925264</v>
+        <v>59.35597371925263</v>
       </c>
       <c r="L46" t="n">
         <v>134.1423710202201</v>
